--- a/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -680,22 +632,22 @@
         <v>1.037449774990111</v>
       </c>
       <c r="E3">
+        <v>1.037449774990111</v>
+      </c>
+      <c r="F3">
         <v>1.005217309344563</v>
       </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0.9917502297435904</v>
+      </c>
+      <c r="H3">
+        <v>1.072599823303805</v>
+      </c>
+      <c r="I3">
+        <v>0.980094481151914</v>
+      </c>
+      <c r="J3">
         <v>1.005997168405381</v>
-      </c>
-      <c r="G3">
-        <v>1.072599823303805</v>
-      </c>
-      <c r="H3">
-        <v>0.980094481151914</v>
-      </c>
-      <c r="I3">
-        <v>0.9917502297435906</v>
-      </c>
-      <c r="J3">
-        <v>1.037449774990111</v>
       </c>
       <c r="K3">
         <v>1.005997168405381</v>
@@ -728,7 +680,7 @@
         <v>1.015518131156561</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -742,22 +694,22 @@
         <v>1.064957821822117</v>
       </c>
       <c r="E4">
+        <v>1.064957821822117</v>
+      </c>
+      <c r="F4">
         <v>1.012095991249685</v>
       </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0.9856285503242744</v>
+      </c>
+      <c r="H4">
+        <v>1.137272415456615</v>
+      </c>
+      <c r="I4">
+        <v>0.9620791790455339</v>
+      </c>
+      <c r="J4">
         <v>1.007493739077857</v>
-      </c>
-      <c r="G4">
-        <v>1.137272415456615</v>
-      </c>
-      <c r="H4">
-        <v>0.9620791790455339</v>
-      </c>
-      <c r="I4">
-        <v>0.9856285503242744</v>
-      </c>
-      <c r="J4">
-        <v>1.064957821822117</v>
       </c>
       <c r="K4">
         <v>1.007493739077857</v>
@@ -790,7 +742,7 @@
         <v>1.02825461616268</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -804,22 +756,22 @@
         <v>1.136092802124864</v>
       </c>
       <c r="E5">
+        <v>1.136092802124864</v>
+      </c>
+      <c r="F5">
         <v>1.026909559658405</v>
       </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0.9650455405237227</v>
+      </c>
+      <c r="H5">
+        <v>1.277625685810049</v>
+      </c>
+      <c r="I5">
+        <v>0.9227134672762809</v>
+      </c>
+      <c r="J5">
         <v>1.025174099042478</v>
-      </c>
-      <c r="G5">
-        <v>1.277625685810049</v>
-      </c>
-      <c r="H5">
-        <v>0.9227134672762809</v>
-      </c>
-      <c r="I5">
-        <v>0.9650455405237229</v>
-      </c>
-      <c r="J5">
-        <v>1.136092802124864</v>
       </c>
       <c r="K5">
         <v>1.025174099042478</v>
@@ -852,7 +804,7 @@
         <v>1.058926859072633</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -866,22 +818,22 @@
         <v>1.282250355510216</v>
       </c>
       <c r="E6">
+        <v>1.282250355510216</v>
+      </c>
+      <c r="F6">
         <v>1.011449923092886</v>
       </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0.9449433416479206</v>
+      </c>
+      <c r="H6">
+        <v>1.46612303229978</v>
+      </c>
+      <c r="I6">
+        <v>0.8663516524729545</v>
+      </c>
+      <c r="J6">
         <v>1.110029312596884</v>
-      </c>
-      <c r="G6">
-        <v>1.46612303229978</v>
-      </c>
-      <c r="H6">
-        <v>0.8663516524729545</v>
-      </c>
-      <c r="I6">
-        <v>0.9449433416479206</v>
-      </c>
-      <c r="J6">
-        <v>1.282250355510216</v>
       </c>
       <c r="K6">
         <v>1.110029312596884</v>
@@ -914,7 +866,7 @@
         <v>1.113524602936774</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -928,37 +880,37 @@
         <v>0.9985921117414067</v>
       </c>
       <c r="E7">
-        <v>0.9988250808034527</v>
+        <v>0.9985921117414067</v>
       </c>
       <c r="F7">
+        <v>0.998825080803453</v>
+      </c>
+      <c r="G7">
+        <v>0.9996074994823106</v>
+      </c>
+      <c r="H7">
+        <v>0.998969699809458</v>
+      </c>
+      <c r="I7">
+        <v>0.9988522212991924</v>
+      </c>
+      <c r="J7">
         <v>1.007499295616701</v>
-      </c>
-      <c r="G7">
-        <v>0.9989696998094576</v>
-      </c>
-      <c r="H7">
-        <v>0.9988522212991933</v>
-      </c>
-      <c r="I7">
-        <v>0.9996074994823103</v>
-      </c>
-      <c r="J7">
-        <v>0.9985921117414067</v>
       </c>
       <c r="K7">
         <v>1.007499295616701</v>
       </c>
       <c r="L7">
-        <v>0.9988250808034527</v>
+        <v>0.998825080803453</v>
       </c>
       <c r="M7">
-        <v>0.9987085962724297</v>
+        <v>0.9987085962724298</v>
       </c>
       <c r="N7">
-        <v>0.9987085962724297</v>
+        <v>0.9987085962724298</v>
       </c>
       <c r="O7">
-        <v>0.9987564712813509</v>
+        <v>0.9987564712813507</v>
       </c>
       <c r="P7">
         <v>1.001638829387187</v>
@@ -976,7 +928,7 @@
         <v>1.000390984792087</v>
       </c>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,43 +936,43 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.020030350304724</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="D8">
-        <v>0.9961606458043105</v>
+        <v>0.9961606458043095</v>
       </c>
       <c r="E8">
-        <v>0.9970818520572419</v>
+        <v>0.9961606458043095</v>
       </c>
       <c r="F8">
-        <v>1.020030350304724</v>
+        <v>0.9970818520572423</v>
       </c>
       <c r="G8">
+        <v>0.998785447115443</v>
+      </c>
+      <c r="H8">
         <v>0.9963400615064937</v>
       </c>
-      <c r="H8">
-        <v>0.996724884352309</v>
-      </c>
       <c r="I8">
-        <v>0.9987854471154424</v>
+        <v>0.9967248843523085</v>
       </c>
       <c r="J8">
-        <v>0.9961606458043105</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="K8">
-        <v>1.020030350304724</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="L8">
-        <v>0.9970818520572419</v>
+        <v>0.9970818520572423</v>
       </c>
       <c r="M8">
-        <v>0.9966212489307762</v>
+        <v>0.996621248930776</v>
       </c>
       <c r="N8">
-        <v>0.9966212489307762</v>
+        <v>0.996621248930776</v>
       </c>
       <c r="O8">
-        <v>0.9966557940712871</v>
+        <v>0.9966557940712869</v>
       </c>
       <c r="P8">
         <v>1.004424282722092</v>
@@ -1029,16 +981,16 @@
         <v>1.004424282722092</v>
       </c>
       <c r="R8">
-        <v>1.00832579961775</v>
+        <v>1.008325799617751</v>
       </c>
       <c r="S8">
-        <v>1.00832579961775</v>
+        <v>1.008325799617751</v>
       </c>
       <c r="T8">
         <v>1.00085387352342</v>
       </c>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1052,34 +1004,34 @@
         <v>0.9950848492204629</v>
       </c>
       <c r="E9">
-        <v>0.9949596304774743</v>
+        <v>0.9950848492204629</v>
       </c>
       <c r="F9">
+        <v>0.9949596304774738</v>
+      </c>
+      <c r="G9">
+        <v>0.9991428890723314</v>
+      </c>
+      <c r="H9">
+        <v>0.9948045068748029</v>
+      </c>
+      <c r="I9">
+        <v>0.9956312778512544</v>
+      </c>
+      <c r="J9">
         <v>1.026938991681904</v>
-      </c>
-      <c r="G9">
-        <v>0.9948045068748029</v>
-      </c>
-      <c r="H9">
-        <v>0.9956312778512542</v>
-      </c>
-      <c r="I9">
-        <v>0.9991428890723314</v>
-      </c>
-      <c r="J9">
-        <v>0.9950848492204629</v>
       </c>
       <c r="K9">
         <v>1.026938991681904</v>
       </c>
       <c r="L9">
-        <v>0.9949596304774743</v>
+        <v>0.9949596304774738</v>
       </c>
       <c r="M9">
-        <v>0.9950222398489685</v>
+        <v>0.9950222398489683</v>
       </c>
       <c r="N9">
-        <v>0.9950222398489685</v>
+        <v>0.9950222398489683</v>
       </c>
       <c r="O9">
         <v>0.995225252516397</v>
@@ -1100,7 +1052,7 @@
         <v>1.001093690863038</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1114,37 +1066,37 @@
         <v>0.9898621295960529</v>
       </c>
       <c r="E10">
-        <v>0.9910459730618013</v>
+        <v>0.9898621295960529</v>
       </c>
       <c r="F10">
+        <v>0.9910459730618016</v>
+      </c>
+      <c r="G10">
+        <v>0.99741334417871</v>
+      </c>
+      <c r="H10">
+        <v>0.9897255894252925</v>
+      </c>
+      <c r="I10">
+        <v>0.990566022586159</v>
+      </c>
+      <c r="J10">
         <v>1.058853766549249</v>
-      </c>
-      <c r="G10">
-        <v>0.9897255894252925</v>
-      </c>
-      <c r="H10">
-        <v>0.990566022586159</v>
-      </c>
-      <c r="I10">
-        <v>0.99741334417871</v>
-      </c>
-      <c r="J10">
-        <v>0.9898621295960529</v>
       </c>
       <c r="K10">
         <v>1.058853766549249</v>
       </c>
       <c r="L10">
-        <v>0.9910459730618013</v>
+        <v>0.9910459730618016</v>
       </c>
       <c r="M10">
-        <v>0.9904540513289271</v>
+        <v>0.9904540513289273</v>
       </c>
       <c r="N10">
-        <v>0.9904540513289271</v>
+        <v>0.9904540513289273</v>
       </c>
       <c r="O10">
-        <v>0.9904913750813377</v>
+        <v>0.9904913750813379</v>
       </c>
       <c r="P10">
         <v>1.013253956402368</v>
@@ -1162,7 +1114,7 @@
         <v>1.002911137566211</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1173,25 +1125,25 @@
         <v>1.102387669969622</v>
       </c>
       <c r="D11">
-        <v>0.9854855150321993</v>
+        <v>0.9854855150321992</v>
       </c>
       <c r="E11">
+        <v>0.9854855150321992</v>
+      </c>
+      <c r="F11">
         <v>0.9848555503704263</v>
       </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0.9966132708285818</v>
+      </c>
+      <c r="H11">
+        <v>0.977879193015598</v>
+      </c>
+      <c r="I11">
+        <v>0.9847095705996862</v>
+      </c>
+      <c r="J11">
         <v>1.102387669969622</v>
-      </c>
-      <c r="G11">
-        <v>0.977879193015598</v>
-      </c>
-      <c r="H11">
-        <v>0.9847095705996862</v>
-      </c>
-      <c r="I11">
-        <v>0.9966132708285818</v>
-      </c>
-      <c r="J11">
-        <v>0.9854855150321993</v>
       </c>
       <c r="K11">
         <v>1.102387669969622</v>
@@ -1224,7 +1176,7 @@
         <v>1.005321794969352</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,43 +1184,43 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4737304055118673</v>
+        <v>0.4737304055118672</v>
       </c>
       <c r="D12">
         <v>0.3218313991703848</v>
       </c>
       <c r="E12">
-        <v>1.351068282767972</v>
+        <v>0.3218313991703848</v>
       </c>
       <c r="F12">
-        <v>0.4737304055118673</v>
+        <v>1.351068282767973</v>
       </c>
       <c r="G12">
-        <v>0.6839215333004303</v>
+        <v>1.147339775608284</v>
       </c>
       <c r="H12">
+        <v>0.68392153330043</v>
+      </c>
+      <c r="I12">
         <v>1.020460596570308</v>
       </c>
-      <c r="I12">
-        <v>1.147339775608284</v>
-      </c>
       <c r="J12">
-        <v>0.3218313991703848</v>
+        <v>0.4737304055118672</v>
       </c>
       <c r="K12">
-        <v>0.4737304055118673</v>
+        <v>0.4737304055118672</v>
       </c>
       <c r="L12">
-        <v>1.351068282767972</v>
+        <v>1.351068282767973</v>
       </c>
       <c r="M12">
-        <v>0.8364498409691785</v>
+        <v>0.8364498409691786</v>
       </c>
       <c r="N12">
-        <v>0.8364498409691785</v>
+        <v>0.8364498409691786</v>
       </c>
       <c r="O12">
-        <v>0.8977867595028881</v>
+        <v>0.8977867595028882</v>
       </c>
       <c r="P12">
         <v>0.7155433624834081</v>
@@ -1277,16 +1229,16 @@
         <v>0.7155433624834081</v>
       </c>
       <c r="R12">
-        <v>0.655090123240523</v>
+        <v>0.6550901232405228</v>
       </c>
       <c r="S12">
-        <v>0.655090123240523</v>
+        <v>0.6550901232405228</v>
       </c>
       <c r="T12">
         <v>0.8330586654882076</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1297,25 +1249,25 @@
         <v>1.552298692499379</v>
       </c>
       <c r="D13">
-        <v>1.713282696435611</v>
+        <v>1.713282696435613</v>
       </c>
       <c r="E13">
+        <v>1.713282696435613</v>
+      </c>
+      <c r="F13">
         <v>0.4915436637177764</v>
       </c>
-      <c r="F13">
+      <c r="G13">
+        <v>0.7928834745362943</v>
+      </c>
+      <c r="H13">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="I13">
+        <v>1.034762081401286</v>
+      </c>
+      <c r="J13">
         <v>1.552298692499379</v>
-      </c>
-      <c r="G13">
-        <v>1.574702724284799</v>
-      </c>
-      <c r="H13">
-        <v>1.034762081401286</v>
-      </c>
-      <c r="I13">
-        <v>0.7928834745362943</v>
-      </c>
-      <c r="J13">
-        <v>1.713282696435611</v>
       </c>
       <c r="K13">
         <v>1.552298692499379</v>
@@ -1324,31 +1276,31 @@
         <v>0.4915436637177764</v>
       </c>
       <c r="M13">
-        <v>1.102413180076694</v>
+        <v>1.102413180076695</v>
       </c>
       <c r="N13">
-        <v>1.102413180076694</v>
+        <v>1.102413180076695</v>
       </c>
       <c r="O13">
         <v>1.079862813851558</v>
       </c>
       <c r="P13">
-        <v>1.252375017550922</v>
+        <v>1.252375017550923</v>
       </c>
       <c r="Q13">
-        <v>1.252375017550922</v>
+        <v>1.252375017550923</v>
       </c>
       <c r="R13">
-        <v>1.327355936288036</v>
+        <v>1.327355936288037</v>
       </c>
       <c r="S13">
-        <v>1.327355936288036</v>
+        <v>1.327355936288037</v>
       </c>
       <c r="T13">
         <v>1.193245555479191</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,31 +1308,31 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1130292872609319</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="D14">
-        <v>-3.79484088523818E-05</v>
+        <v>-3.794840885238125E-05</v>
       </c>
       <c r="E14">
+        <v>-3.794840885238125E-05</v>
+      </c>
+      <c r="F14">
         <v>1.832888417990372</v>
       </c>
-      <c r="F14">
-        <v>0.1130292872609319</v>
-      </c>
       <c r="G14">
-        <v>4.102775723979868</v>
+        <v>1.250686388972495</v>
       </c>
       <c r="H14">
-        <v>0.005498949930406618</v>
+        <v>4.102775723979871</v>
       </c>
       <c r="I14">
-        <v>1.250686388972495</v>
+        <v>0.005498949930406612</v>
       </c>
       <c r="J14">
-        <v>-3.79484088523818E-05</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="K14">
-        <v>0.1130292872609319</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="L14">
         <v>1.832888417990372</v>
@@ -1395,22 +1347,22 @@
         <v>0.6127831398373087</v>
       </c>
       <c r="P14">
-        <v>0.6486265856141505</v>
+        <v>0.6486265856141504</v>
       </c>
       <c r="Q14">
-        <v>0.6486265856141505</v>
+        <v>0.6486265856141504</v>
       </c>
       <c r="R14">
-        <v>0.5147272610258459</v>
+        <v>0.5147272610258458</v>
       </c>
       <c r="S14">
-        <v>0.5147272610258459</v>
+        <v>0.5147272610258458</v>
       </c>
       <c r="T14">
         <v>1.217473469954204</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1421,25 +1373,25 @@
         <v>1.486216094593838</v>
       </c>
       <c r="D15">
-        <v>0.01444413321375921</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="E15">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="F15">
         <v>1.369242230548034</v>
       </c>
-      <c r="F15">
+      <c r="G15">
+        <v>1.543102081820894</v>
+      </c>
+      <c r="H15">
+        <v>0.1235815129862916</v>
+      </c>
+      <c r="I15">
+        <v>0.3225242475568116</v>
+      </c>
+      <c r="J15">
         <v>1.486216094593838</v>
-      </c>
-      <c r="G15">
-        <v>0.1235815129862916</v>
-      </c>
-      <c r="H15">
-        <v>0.3225242475568116</v>
-      </c>
-      <c r="I15">
-        <v>1.543102081820894</v>
-      </c>
-      <c r="J15">
-        <v>0.01444413321375921</v>
       </c>
       <c r="K15">
         <v>1.486216094593838</v>
@@ -1472,7 +1424,7 @@
         <v>0.8098517167866048</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000556684875521</v>
+        <v>1.06343559185888</v>
       </c>
       <c r="D16">
-        <v>1.009564042616003</v>
+        <v>1.565655733147242</v>
       </c>
       <c r="E16">
-        <v>0.9969080466385997</v>
+        <v>1.565655733147242</v>
       </c>
       <c r="F16">
-        <v>1.000556684875521</v>
+        <v>1.101097377742069</v>
       </c>
       <c r="G16">
-        <v>1.009700728530703</v>
+        <v>0.8725775711955174</v>
       </c>
       <c r="H16">
-        <v>1.000255705444245</v>
+        <v>2.261146220240363</v>
       </c>
       <c r="I16">
-        <v>0.9983902169510342</v>
+        <v>0.6552136466428545</v>
       </c>
       <c r="J16">
-        <v>1.009564042616003</v>
+        <v>1.06343559185888</v>
       </c>
       <c r="K16">
-        <v>1.000556684875521</v>
+        <v>1.06343559185888</v>
       </c>
       <c r="L16">
-        <v>0.9969080466385997</v>
+        <v>1.101097377742069</v>
       </c>
       <c r="M16">
-        <v>1.003236044627301</v>
+        <v>1.333376555444655</v>
       </c>
       <c r="N16">
-        <v>1.003236044627301</v>
+        <v>1.333376555444655</v>
       </c>
       <c r="O16">
-        <v>1.002242598232949</v>
+        <v>1.107322252510722</v>
       </c>
       <c r="P16">
-        <v>1.002342924710041</v>
+        <v>1.243396234249397</v>
       </c>
       <c r="Q16">
-        <v>1.002342924710041</v>
+        <v>1.243396234249397</v>
       </c>
       <c r="R16">
-        <v>1.001896364751411</v>
+        <v>1.198406073651768</v>
       </c>
       <c r="S16">
-        <v>1.001896364751411</v>
+        <v>1.198406073651768</v>
       </c>
       <c r="T16">
-        <v>1.002562570842684</v>
+        <v>1.253187690137821</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.013015246083423</v>
+        <v>1.219359103095485</v>
       </c>
       <c r="D17">
-        <v>0.9839310370834983</v>
+        <v>1.320177527839538</v>
       </c>
       <c r="E17">
-        <v>1.003584299867386</v>
+        <v>1.320177527839538</v>
       </c>
       <c r="F17">
-        <v>1.013015246083423</v>
+        <v>1.037103854602549</v>
       </c>
       <c r="G17">
-        <v>0.9810758908467639</v>
+        <v>0.916050210816585</v>
       </c>
       <c r="H17">
-        <v>0.9988944704466883</v>
+        <v>1.8064966290072</v>
       </c>
       <c r="I17">
-        <v>1.001758610689244</v>
+        <v>0.7313403938608223</v>
       </c>
       <c r="J17">
-        <v>0.9839310370834983</v>
+        <v>1.219359103095485</v>
       </c>
       <c r="K17">
-        <v>1.013015246083423</v>
+        <v>1.219359103095485</v>
       </c>
       <c r="L17">
-        <v>1.003584299867386</v>
+        <v>1.037103854602549</v>
       </c>
       <c r="M17">
-        <v>0.9937576684754421</v>
+        <v>1.178640691221044</v>
       </c>
       <c r="N17">
-        <v>0.9937576684754421</v>
+        <v>1.178640691221044</v>
       </c>
       <c r="O17">
-        <v>0.9954699357991909</v>
+        <v>1.02954059210097</v>
       </c>
       <c r="P17">
-        <v>1.000176861011436</v>
+        <v>1.192213495179191</v>
       </c>
       <c r="Q17">
-        <v>1.000176861011436</v>
+        <v>1.192213495179191</v>
       </c>
       <c r="R17">
-        <v>1.003386457279433</v>
+        <v>1.198999897158264</v>
       </c>
       <c r="S17">
-        <v>1.003386457279433</v>
+        <v>1.198999897158264</v>
       </c>
       <c r="T17">
-        <v>0.9970432591695005</v>
+        <v>1.171754619870363</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9960078692838205</v>
+        <v>1.525441683210494</v>
       </c>
       <c r="D18">
-        <v>1.048439747818371</v>
+        <v>0.831607165378094</v>
       </c>
       <c r="E18">
-        <v>0.999255084803218</v>
+        <v>0.831607165378094</v>
       </c>
       <c r="F18">
-        <v>0.9960078692838205</v>
+        <v>0.91022810884712</v>
       </c>
       <c r="G18">
-        <v>1.065582532674874</v>
+        <v>1.00299298399753</v>
       </c>
       <c r="H18">
-        <v>0.993014734685568</v>
+        <v>0.901031553962064</v>
       </c>
       <c r="I18">
-        <v>0.9917111600417813</v>
+        <v>0.883687939580732</v>
       </c>
       <c r="J18">
-        <v>1.048439747818371</v>
+        <v>1.525441683210494</v>
       </c>
       <c r="K18">
-        <v>0.9960078692838205</v>
+        <v>1.525441683210494</v>
       </c>
       <c r="L18">
-        <v>0.999255084803218</v>
+        <v>0.91022810884712</v>
       </c>
       <c r="M18">
-        <v>1.023847416310794</v>
+        <v>0.8709176371126071</v>
       </c>
       <c r="N18">
-        <v>1.023847416310794</v>
+        <v>0.8709176371126071</v>
       </c>
       <c r="O18">
-        <v>1.013569855769052</v>
+        <v>0.875174404601982</v>
       </c>
       <c r="P18">
-        <v>1.014567567301803</v>
+        <v>1.089092319145236</v>
       </c>
       <c r="Q18">
-        <v>1.014567567301803</v>
+        <v>1.089092319145236</v>
       </c>
       <c r="R18">
-        <v>1.009927642797307</v>
+        <v>1.198179660161551</v>
       </c>
       <c r="S18">
-        <v>1.009927642797307</v>
+        <v>1.198179660161551</v>
       </c>
       <c r="T18">
-        <v>1.015668521551272</v>
+        <v>1.009164905829339</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.75994837497572</v>
+      </c>
+      <c r="D19">
+        <v>0.8891741046410226</v>
+      </c>
+      <c r="E19">
+        <v>0.8891741046410226</v>
+      </c>
+      <c r="F19">
+        <v>0.8359522934012309</v>
+      </c>
+      <c r="G19">
+        <v>0.9809547930607488</v>
+      </c>
+      <c r="H19">
+        <v>0.8470197035584321</v>
+      </c>
+      <c r="I19">
+        <v>0.8703572413579554</v>
+      </c>
+      <c r="J19">
+        <v>1.75994837497572</v>
+      </c>
+      <c r="K19">
+        <v>1.75994837497572</v>
+      </c>
+      <c r="L19">
+        <v>0.8359522934012309</v>
+      </c>
+      <c r="M19">
+        <v>0.8625631990211268</v>
+      </c>
+      <c r="N19">
+        <v>0.8625631990211268</v>
+      </c>
+      <c r="O19">
+        <v>0.865161213133403</v>
+      </c>
+      <c r="P19">
+        <v>1.161691591005991</v>
+      </c>
+      <c r="Q19">
+        <v>1.161691591005991</v>
+      </c>
+      <c r="R19">
+        <v>1.311255786998424</v>
+      </c>
+      <c r="S19">
+        <v>1.311255786998424</v>
+      </c>
+      <c r="T19">
+        <v>1.030567751832518</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000556684875521</v>
+      </c>
+      <c r="D20">
+        <v>1.009564042616003</v>
+      </c>
+      <c r="E20">
+        <v>1.009564042616003</v>
+      </c>
+      <c r="F20">
+        <v>0.9969080466385997</v>
+      </c>
+      <c r="G20">
+        <v>0.998390216951034</v>
+      </c>
+      <c r="H20">
+        <v>1.009700728530704</v>
+      </c>
+      <c r="I20">
+        <v>1.000255705444245</v>
+      </c>
+      <c r="J20">
+        <v>1.000556684875521</v>
+      </c>
+      <c r="K20">
+        <v>1.000556684875521</v>
+      </c>
+      <c r="L20">
+        <v>0.9969080466385997</v>
+      </c>
+      <c r="M20">
+        <v>1.003236044627301</v>
+      </c>
+      <c r="N20">
+        <v>1.003236044627301</v>
+      </c>
+      <c r="O20">
+        <v>1.002242598232949</v>
+      </c>
+      <c r="P20">
+        <v>1.002342924710041</v>
+      </c>
+      <c r="Q20">
+        <v>1.002342924710041</v>
+      </c>
+      <c r="R20">
+        <v>1.001896364751411</v>
+      </c>
+      <c r="S20">
+        <v>1.001896364751411</v>
+      </c>
+      <c r="T20">
+        <v>1.002562570842684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.013015246083423</v>
+      </c>
+      <c r="D21">
+        <v>0.9839310370834984</v>
+      </c>
+      <c r="E21">
+        <v>0.9839310370834984</v>
+      </c>
+      <c r="F21">
+        <v>1.003584299867386</v>
+      </c>
+      <c r="G21">
+        <v>1.001758610689244</v>
+      </c>
+      <c r="H21">
+        <v>0.9810758908467656</v>
+      </c>
+      <c r="I21">
+        <v>0.9988944704466881</v>
+      </c>
+      <c r="J21">
+        <v>1.013015246083423</v>
+      </c>
+      <c r="K21">
+        <v>1.013015246083423</v>
+      </c>
+      <c r="L21">
+        <v>1.003584299867386</v>
+      </c>
+      <c r="M21">
+        <v>0.993757668475442</v>
+      </c>
+      <c r="N21">
+        <v>0.993757668475442</v>
+      </c>
+      <c r="O21">
+        <v>0.9954699357991906</v>
+      </c>
+      <c r="P21">
+        <v>1.000176861011436</v>
+      </c>
+      <c r="Q21">
+        <v>1.000176861011436</v>
+      </c>
+      <c r="R21">
+        <v>1.003386457279433</v>
+      </c>
+      <c r="S21">
+        <v>1.003386457279433</v>
+      </c>
+      <c r="T21">
+        <v>0.997043259169501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9960078692838206</v>
+      </c>
+      <c r="D22">
+        <v>1.048439747818371</v>
+      </c>
+      <c r="E22">
+        <v>1.048439747818371</v>
+      </c>
+      <c r="F22">
+        <v>0.9992550848032176</v>
+      </c>
+      <c r="G22">
+        <v>0.9917111600417809</v>
+      </c>
+      <c r="H22">
+        <v>1.065582532674876</v>
+      </c>
+      <c r="I22">
+        <v>0.9930147346855682</v>
+      </c>
+      <c r="J22">
+        <v>0.9960078692838206</v>
+      </c>
+      <c r="K22">
+        <v>0.9960078692838206</v>
+      </c>
+      <c r="L22">
+        <v>0.9992550848032176</v>
+      </c>
+      <c r="M22">
+        <v>1.023847416310794</v>
+      </c>
+      <c r="N22">
+        <v>1.023847416310794</v>
+      </c>
+      <c r="O22">
+        <v>1.013569855769052</v>
+      </c>
+      <c r="P22">
+        <v>1.014567567301803</v>
+      </c>
+      <c r="Q22">
+        <v>1.014567567301803</v>
+      </c>
+      <c r="R22">
+        <v>1.009927642797308</v>
+      </c>
+      <c r="S22">
+        <v>1.009927642797308</v>
+      </c>
+      <c r="T22">
+        <v>1.015668521551272</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
         <v>0.9441300260527323</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <v>1.161619258063608</v>
       </c>
-      <c r="E19">
+      <c r="E23">
+        <v>1.161619258063608</v>
+      </c>
+      <c r="F23">
         <v>0.9659952262325709</v>
       </c>
-      <c r="F19">
+      <c r="G23">
+        <v>0.9767460430876002</v>
+      </c>
+      <c r="H23">
+        <v>1.226324100103181</v>
+      </c>
+      <c r="I23">
+        <v>0.9886503892955336</v>
+      </c>
+      <c r="J23">
         <v>0.9441300260527323</v>
       </c>
-      <c r="G19">
-        <v>1.226324100103181</v>
-      </c>
-      <c r="H19">
-        <v>0.9886503892955336</v>
-      </c>
-      <c r="I19">
-        <v>0.9767460430876002</v>
-      </c>
-      <c r="J19">
-        <v>1.161619258063608</v>
-      </c>
-      <c r="K19">
+      <c r="K23">
         <v>0.9441300260527323</v>
       </c>
-      <c r="L19">
+      <c r="L23">
         <v>0.9659952262325709</v>
       </c>
-      <c r="M19">
+      <c r="M23">
         <v>1.063807242148089</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>1.063807242148089</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.038754957863904</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>1.02391483678297</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.02391483678297</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>1.003968634100411</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.003968634100411</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>1.043910840472538</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005997168405381</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="D3">
-        <v>1.037449774990111</v>
+        <v>0.867838006209775</v>
       </c>
       <c r="E3">
-        <v>1.037449774990111</v>
+        <v>0.867838006209775</v>
       </c>
       <c r="F3">
-        <v>1.005217309344563</v>
+        <v>0.8829594171521603</v>
       </c>
       <c r="G3">
-        <v>0.9917502297435904</v>
+        <v>0.9810661891932296</v>
       </c>
       <c r="H3">
-        <v>1.072599823303805</v>
+        <v>0.9054933994113786</v>
       </c>
       <c r="I3">
-        <v>0.980094481151914</v>
+        <v>0.871280693400832</v>
       </c>
       <c r="J3">
-        <v>1.005997168405381</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="K3">
-        <v>1.005997168405381</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="L3">
-        <v>1.005217309344563</v>
+        <v>0.8829594171521603</v>
       </c>
       <c r="M3">
-        <v>1.021333542167337</v>
+        <v>0.8753987116809676</v>
       </c>
       <c r="N3">
-        <v>1.021333542167337</v>
+        <v>0.8753987116809676</v>
       </c>
       <c r="O3">
-        <v>1.00758718849553</v>
+        <v>0.8740260389209223</v>
       </c>
       <c r="P3">
-        <v>1.016221417580019</v>
+        <v>1.139063407674003</v>
       </c>
       <c r="Q3">
-        <v>1.016221417580019</v>
+        <v>1.139063407674003</v>
       </c>
       <c r="R3">
-        <v>1.013665355286359</v>
+        <v>1.270895755670521</v>
       </c>
       <c r="S3">
-        <v>1.013665355286359</v>
+        <v>1.270895755670521</v>
       </c>
       <c r="T3">
-        <v>1.015518131156561</v>
+        <v>1.029171750837908</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007493739077857</v>
+        <v>1.588500410323812</v>
       </c>
       <c r="D4">
-        <v>1.064957821822117</v>
+        <v>0.8493271597432352</v>
       </c>
       <c r="E4">
-        <v>1.064957821822117</v>
+        <v>0.8493271597432352</v>
       </c>
       <c r="F4">
-        <v>1.012095991249685</v>
+        <v>0.8971203910523626</v>
       </c>
       <c r="G4">
-        <v>0.9856285503242744</v>
+        <v>0.9928563128459913</v>
       </c>
       <c r="H4">
-        <v>1.137272415456615</v>
+        <v>0.9003365459693118</v>
       </c>
       <c r="I4">
-        <v>0.9620791790455339</v>
+        <v>0.8795845759317493</v>
       </c>
       <c r="J4">
-        <v>1.007493739077857</v>
+        <v>1.588500410323812</v>
       </c>
       <c r="K4">
-        <v>1.007493739077857</v>
+        <v>1.588500410323812</v>
       </c>
       <c r="L4">
-        <v>1.012095991249685</v>
+        <v>0.8971203910523626</v>
       </c>
       <c r="M4">
-        <v>1.038526906535901</v>
+        <v>0.8732237753977989</v>
       </c>
       <c r="N4">
-        <v>1.038526906535901</v>
+        <v>0.8732237753977989</v>
       </c>
       <c r="O4">
-        <v>1.013044330705778</v>
+        <v>0.8753440422424491</v>
       </c>
       <c r="P4">
-        <v>1.02818251738322</v>
+        <v>1.111649320373137</v>
       </c>
       <c r="Q4">
-        <v>1.028182517383219</v>
+        <v>1.111649320373137</v>
       </c>
       <c r="R4">
-        <v>1.023010322806879</v>
+        <v>1.230862092860805</v>
       </c>
       <c r="S4">
-        <v>1.023010322806879</v>
+        <v>1.230862092860805</v>
       </c>
       <c r="T4">
-        <v>1.02825461616268</v>
+        <v>1.01795423264441</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.025174099042478</v>
+        <v>1.819324004990101</v>
       </c>
       <c r="D5">
-        <v>1.136092802124864</v>
+        <v>0.8995516385951738</v>
       </c>
       <c r="E5">
-        <v>1.136092802124864</v>
+        <v>0.8995516385951738</v>
       </c>
       <c r="F5">
-        <v>1.026909559658405</v>
+        <v>0.8556264064862539</v>
       </c>
       <c r="G5">
-        <v>0.9650455405237227</v>
+        <v>0.9589875017121289</v>
       </c>
       <c r="H5">
-        <v>1.277625685810049</v>
+        <v>0.9130013549629642</v>
       </c>
       <c r="I5">
-        <v>0.9227134672762809</v>
+        <v>0.8546218619143673</v>
       </c>
       <c r="J5">
-        <v>1.025174099042478</v>
+        <v>1.819324004990101</v>
       </c>
       <c r="K5">
-        <v>1.025174099042478</v>
+        <v>1.819324004990101</v>
       </c>
       <c r="L5">
-        <v>1.026909559658405</v>
+        <v>0.8556264064862539</v>
       </c>
       <c r="M5">
-        <v>1.081501180891634</v>
+        <v>0.8775890225407139</v>
       </c>
       <c r="N5">
-        <v>1.081501180891634</v>
+        <v>0.8775890225407139</v>
       </c>
       <c r="O5">
-        <v>1.02857194301985</v>
+        <v>0.8699333023319317</v>
       </c>
       <c r="P5">
-        <v>1.062725486941916</v>
+        <v>1.191500683357176</v>
       </c>
       <c r="Q5">
-        <v>1.062725486941916</v>
+        <v>1.191500683357176</v>
       </c>
       <c r="R5">
-        <v>1.053337639967056</v>
+        <v>1.348456513765407</v>
       </c>
       <c r="S5">
-        <v>1.053337639967056</v>
+        <v>1.348456513765407</v>
       </c>
       <c r="T5">
-        <v>1.058926859072633</v>
+        <v>1.050185461443498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.110029312596884</v>
+        <v>1.972486828143466</v>
       </c>
       <c r="D6">
-        <v>1.282250355510216</v>
+        <v>0.9285520856356242</v>
       </c>
       <c r="E6">
-        <v>1.282250355510216</v>
+        <v>0.9285520856356242</v>
       </c>
       <c r="F6">
-        <v>1.011449923092886</v>
+        <v>0.8304183054443177</v>
       </c>
       <c r="G6">
-        <v>0.9449433416479206</v>
+        <v>0.9382628616590906</v>
       </c>
       <c r="H6">
-        <v>1.46612303229978</v>
+        <v>0.917202682975228</v>
       </c>
       <c r="I6">
-        <v>0.8663516524729545</v>
+        <v>0.8394539345104884</v>
       </c>
       <c r="J6">
-        <v>1.110029312596884</v>
+        <v>1.972486828143466</v>
       </c>
       <c r="K6">
-        <v>1.110029312596884</v>
+        <v>1.972486828143466</v>
       </c>
       <c r="L6">
-        <v>1.011449923092886</v>
+        <v>0.8304183054443177</v>
       </c>
       <c r="M6">
-        <v>1.14685013930155</v>
+        <v>0.879485195539971</v>
       </c>
       <c r="N6">
-        <v>1.14685013930155</v>
+        <v>0.879485195539971</v>
       </c>
       <c r="O6">
-        <v>1.053350643692019</v>
+        <v>0.8661414418634767</v>
       </c>
       <c r="P6">
-        <v>1.134576530399995</v>
+        <v>1.243819073074469</v>
       </c>
       <c r="Q6">
-        <v>1.134576530399995</v>
+        <v>1.243819073074469</v>
       </c>
       <c r="R6">
-        <v>1.128439725949217</v>
+        <v>1.425986011841718</v>
       </c>
       <c r="S6">
-        <v>1.128439725949217</v>
+        <v>1.425986011841718</v>
       </c>
       <c r="T6">
-        <v>1.113524602936774</v>
+        <v>1.071062783061369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007499295616701</v>
+        <v>1.536717506416036</v>
       </c>
       <c r="D7">
-        <v>0.9985921117414067</v>
+        <v>3.813098582636145</v>
       </c>
       <c r="E7">
-        <v>0.9985921117414067</v>
+        <v>3.813098582636145</v>
       </c>
       <c r="F7">
-        <v>0.998825080803453</v>
+        <v>0.06576075616705625</v>
       </c>
       <c r="G7">
-        <v>0.9996074994823106</v>
+        <v>0.3301213276238172</v>
       </c>
       <c r="H7">
-        <v>0.998969699809458</v>
+        <v>0.00105473131394144</v>
       </c>
       <c r="I7">
-        <v>0.9988522212991924</v>
+        <v>2.081724807613304</v>
       </c>
       <c r="J7">
-        <v>1.007499295616701</v>
+        <v>1.536717506416036</v>
       </c>
       <c r="K7">
-        <v>1.007499295616701</v>
+        <v>1.536717506416036</v>
       </c>
       <c r="L7">
-        <v>0.998825080803453</v>
+        <v>0.06576075616705625</v>
       </c>
       <c r="M7">
-        <v>0.9987085962724298</v>
+        <v>1.9394296694016</v>
       </c>
       <c r="N7">
-        <v>0.9987085962724298</v>
+        <v>1.9394296694016</v>
       </c>
       <c r="O7">
-        <v>0.9987564712813507</v>
+        <v>1.986861382138835</v>
       </c>
       <c r="P7">
-        <v>1.001638829387187</v>
+        <v>1.805192281739746</v>
       </c>
       <c r="Q7">
-        <v>1.001638829387187</v>
+        <v>1.805192281739746</v>
       </c>
       <c r="R7">
-        <v>1.003103945944565</v>
+        <v>1.738073587908818</v>
       </c>
       <c r="S7">
-        <v>1.003103945944565</v>
+        <v>1.738073587908818</v>
       </c>
       <c r="T7">
-        <v>1.000390984792087</v>
+        <v>1.30474628529505</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.020030350304725</v>
+        <v>1.570478024798651</v>
       </c>
       <c r="D8">
-        <v>0.9961606458043095</v>
+        <v>3.792226568893989</v>
       </c>
       <c r="E8">
-        <v>0.9961606458043095</v>
+        <v>3.792226568893989</v>
       </c>
       <c r="F8">
-        <v>0.9970818520572423</v>
+        <v>0.06554019872590683</v>
       </c>
       <c r="G8">
-        <v>0.998785447115443</v>
+        <v>0.3317472814760187</v>
       </c>
       <c r="H8">
-        <v>0.9963400615064937</v>
+        <v>0.001087735600771453</v>
       </c>
       <c r="I8">
-        <v>0.9967248843523085</v>
+        <v>2.070066004530333</v>
       </c>
       <c r="J8">
-        <v>1.020030350304725</v>
+        <v>1.570478024798651</v>
       </c>
       <c r="K8">
-        <v>1.020030350304725</v>
+        <v>1.570478024798651</v>
       </c>
       <c r="L8">
-        <v>0.9970818520572423</v>
+        <v>0.06554019872590683</v>
       </c>
       <c r="M8">
-        <v>0.996621248930776</v>
+        <v>1.928883383809948</v>
       </c>
       <c r="N8">
-        <v>0.996621248930776</v>
+        <v>1.928883383809948</v>
       </c>
       <c r="O8">
-        <v>0.9966557940712869</v>
+        <v>1.97594425738341</v>
       </c>
       <c r="P8">
-        <v>1.004424282722092</v>
+        <v>1.809414930806182</v>
       </c>
       <c r="Q8">
-        <v>1.004424282722092</v>
+        <v>1.809414930806182</v>
       </c>
       <c r="R8">
-        <v>1.008325799617751</v>
+        <v>1.749680704304299</v>
       </c>
       <c r="S8">
-        <v>1.008325799617751</v>
+        <v>1.749680704304299</v>
       </c>
       <c r="T8">
-        <v>1.00085387352342</v>
+        <v>1.305190969004278</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.026938991681904</v>
+        <v>1.598071565603518</v>
       </c>
       <c r="D9">
-        <v>0.9950848492204629</v>
+        <v>3.778281756344169</v>
       </c>
       <c r="E9">
-        <v>0.9950848492204629</v>
+        <v>3.778281756344169</v>
       </c>
       <c r="F9">
-        <v>0.9949596304774738</v>
+        <v>0.06532196310246845</v>
       </c>
       <c r="G9">
-        <v>0.9991428890723314</v>
+        <v>0.3327975694946431</v>
       </c>
       <c r="H9">
-        <v>0.9948045068748029</v>
+        <v>0.001116021366939997</v>
       </c>
       <c r="I9">
-        <v>0.9956312778512544</v>
+        <v>2.060951468930964</v>
       </c>
       <c r="J9">
-        <v>1.026938991681904</v>
+        <v>1.598071565603518</v>
       </c>
       <c r="K9">
-        <v>1.026938991681904</v>
+        <v>1.598071565603518</v>
       </c>
       <c r="L9">
-        <v>0.9949596304774738</v>
+        <v>0.06532196310246845</v>
       </c>
       <c r="M9">
-        <v>0.9950222398489683</v>
+        <v>1.921801859723319</v>
       </c>
       <c r="N9">
-        <v>0.9950222398489683</v>
+        <v>1.921801859723319</v>
       </c>
       <c r="O9">
-        <v>0.995225252516397</v>
+        <v>1.968185062792534</v>
       </c>
       <c r="P9">
-        <v>1.005661157126614</v>
+        <v>1.813891761683385</v>
       </c>
       <c r="Q9">
-        <v>1.005661157126614</v>
+        <v>1.813891761683386</v>
       </c>
       <c r="R9">
-        <v>1.010980615765436</v>
+        <v>1.759936712663419</v>
       </c>
       <c r="S9">
-        <v>1.010980615765436</v>
+        <v>1.759936712663419</v>
       </c>
       <c r="T9">
-        <v>1.001093690863038</v>
+        <v>1.306090057473784</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.058853766549249</v>
+        <v>1.700156165283175</v>
       </c>
       <c r="D10">
-        <v>0.9898621295960529</v>
+        <v>3.72497325330933</v>
       </c>
       <c r="E10">
-        <v>0.9898621295960529</v>
+        <v>3.72497325330933</v>
       </c>
       <c r="F10">
-        <v>0.9910459730618016</v>
+        <v>0.06453957450804347</v>
       </c>
       <c r="G10">
-        <v>0.99741334417871</v>
+        <v>0.3365953127482126</v>
       </c>
       <c r="H10">
-        <v>0.9897255894252925</v>
+        <v>0.001223357434953804</v>
       </c>
       <c r="I10">
-        <v>0.990566022586159</v>
+        <v>2.027968517242809</v>
       </c>
       <c r="J10">
-        <v>1.058853766549249</v>
+        <v>1.700156165283175</v>
       </c>
       <c r="K10">
-        <v>1.058853766549249</v>
+        <v>1.700156165283175</v>
       </c>
       <c r="L10">
-        <v>0.9910459730618016</v>
+        <v>0.06453957450804347</v>
       </c>
       <c r="M10">
-        <v>0.9904540513289273</v>
+        <v>1.894756413908687</v>
       </c>
       <c r="N10">
-        <v>0.9904540513289273</v>
+        <v>1.894756413908687</v>
       </c>
       <c r="O10">
-        <v>0.9904913750813379</v>
+        <v>1.939160448353394</v>
       </c>
       <c r="P10">
-        <v>1.013253956402368</v>
+        <v>1.829889664366849</v>
       </c>
       <c r="Q10">
-        <v>1.013253956402368</v>
+        <v>1.829889664366849</v>
       </c>
       <c r="R10">
-        <v>1.024653908939088</v>
+        <v>1.797456289595931</v>
       </c>
       <c r="S10">
-        <v>1.024653908939088</v>
+        <v>1.797456289595931</v>
       </c>
       <c r="T10">
-        <v>1.002911137566211</v>
+        <v>1.309242696754421</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.102387669969622</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="D11">
-        <v>0.9854855150321992</v>
+        <v>1.038525079572818</v>
       </c>
       <c r="E11">
-        <v>0.9854855150321992</v>
+        <v>1.038525079572818</v>
       </c>
       <c r="F11">
-        <v>0.9848555503704263</v>
+        <v>1.001998159897869</v>
       </c>
       <c r="G11">
-        <v>0.9966132708285818</v>
+        <v>0.9909840206094394</v>
       </c>
       <c r="H11">
-        <v>0.977879193015598</v>
+        <v>1.065923499177135</v>
       </c>
       <c r="I11">
-        <v>0.9847095705996862</v>
+        <v>0.9874319103075205</v>
       </c>
       <c r="J11">
-        <v>1.102387669969622</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="K11">
-        <v>1.102387669969622</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="L11">
-        <v>0.9848555503704263</v>
+        <v>1.001998159897869</v>
       </c>
       <c r="M11">
-        <v>0.9851705327013127</v>
+        <v>1.020261619735344</v>
       </c>
       <c r="N11">
-        <v>0.9851705327013127</v>
+        <v>1.020261619735344</v>
       </c>
       <c r="O11">
-        <v>0.9850168786674373</v>
+        <v>1.009318383259403</v>
       </c>
       <c r="P11">
-        <v>1.024242911790749</v>
+        <v>1.012592105261432</v>
       </c>
       <c r="Q11">
-        <v>1.024242911790749</v>
+        <v>1.012592105261432</v>
       </c>
       <c r="R11">
-        <v>1.043779101335467</v>
+        <v>1.008757348024476</v>
       </c>
       <c r="S11">
-        <v>1.043779101335467</v>
+        <v>1.008757348024476</v>
       </c>
       <c r="T11">
-        <v>1.005321794969352</v>
+        <v>1.013685957646399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4737304055118672</v>
+        <v>1.004344253291226</v>
       </c>
       <c r="D12">
-        <v>0.3218313991703848</v>
+        <v>1.032263108137406</v>
       </c>
       <c r="E12">
-        <v>0.3218313991703848</v>
+        <v>1.032263108137406</v>
       </c>
       <c r="F12">
-        <v>1.351068282767973</v>
+        <v>0.9987888691860338</v>
       </c>
       <c r="G12">
-        <v>1.147339775608284</v>
+        <v>0.9929537356440876</v>
       </c>
       <c r="H12">
-        <v>0.68392153330043</v>
+        <v>1.031556338588268</v>
       </c>
       <c r="I12">
-        <v>1.020460596570308</v>
+        <v>0.9948267792148425</v>
       </c>
       <c r="J12">
-        <v>0.4737304055118672</v>
+        <v>1.004344253291226</v>
       </c>
       <c r="K12">
-        <v>0.4737304055118672</v>
+        <v>1.004344253291226</v>
       </c>
       <c r="L12">
-        <v>1.351068282767973</v>
+        <v>0.9987888691860338</v>
       </c>
       <c r="M12">
-        <v>0.8364498409691786</v>
+        <v>1.01552598866172</v>
       </c>
       <c r="N12">
-        <v>0.8364498409691786</v>
+        <v>1.01552598866172</v>
       </c>
       <c r="O12">
-        <v>0.8977867595028882</v>
+        <v>1.008626252179427</v>
       </c>
       <c r="P12">
-        <v>0.7155433624834081</v>
+        <v>1.011798743538222</v>
       </c>
       <c r="Q12">
-        <v>0.7155433624834081</v>
+        <v>1.011798743538222</v>
       </c>
       <c r="R12">
-        <v>0.6550901232405228</v>
+        <v>1.009935120976473</v>
       </c>
       <c r="S12">
-        <v>0.6550901232405228</v>
+        <v>1.009935120976473</v>
       </c>
       <c r="T12">
-        <v>0.8330586654882076</v>
+        <v>1.009122180676977</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.552298692499379</v>
+        <v>1.006386962324587</v>
       </c>
       <c r="D13">
-        <v>1.713282696435613</v>
+        <v>1.112835810806034</v>
       </c>
       <c r="E13">
-        <v>1.713282696435613</v>
+        <v>1.112835810806034</v>
       </c>
       <c r="F13">
-        <v>0.4915436637177764</v>
+        <v>0.9981785343019045</v>
       </c>
       <c r="G13">
-        <v>0.7928834745362943</v>
+        <v>0.9770939803633872</v>
       </c>
       <c r="H13">
-        <v>1.5747027242848</v>
+        <v>1.119804394965588</v>
       </c>
       <c r="I13">
-        <v>1.034762081401286</v>
+        <v>0.9778655574171329</v>
       </c>
       <c r="J13">
-        <v>1.552298692499379</v>
+        <v>1.006386962324587</v>
       </c>
       <c r="K13">
-        <v>1.552298692499379</v>
+        <v>1.006386962324587</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177764</v>
+        <v>0.9981785343019045</v>
       </c>
       <c r="M13">
-        <v>1.102413180076695</v>
+        <v>1.055507172553969</v>
       </c>
       <c r="N13">
-        <v>1.102413180076695</v>
+        <v>1.055507172553969</v>
       </c>
       <c r="O13">
-        <v>1.079862813851558</v>
+        <v>1.029626634175024</v>
       </c>
       <c r="P13">
-        <v>1.252375017550923</v>
+        <v>1.039133769144175</v>
       </c>
       <c r="Q13">
-        <v>1.252375017550923</v>
+        <v>1.039133769144175</v>
       </c>
       <c r="R13">
-        <v>1.327355936288037</v>
+        <v>1.030947067439278</v>
       </c>
       <c r="S13">
-        <v>1.327355936288037</v>
+        <v>1.030947067439278</v>
       </c>
       <c r="T13">
-        <v>1.193245555479191</v>
+        <v>1.032027540029772</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1130292872609318</v>
+        <v>1.016304724498272</v>
       </c>
       <c r="D14">
-        <v>-3.794840885238125E-05</v>
+        <v>1.101467013401271</v>
       </c>
       <c r="E14">
-        <v>-3.794840885238125E-05</v>
+        <v>1.101467013401271</v>
       </c>
       <c r="F14">
-        <v>1.832888417990372</v>
+        <v>1.019693777894301</v>
       </c>
       <c r="G14">
-        <v>1.250686388972495</v>
+        <v>0.978140935908601</v>
       </c>
       <c r="H14">
-        <v>4.102775723979871</v>
+        <v>1.194198192067103</v>
       </c>
       <c r="I14">
-        <v>0.005498949930406612</v>
+        <v>0.9527058434450709</v>
       </c>
       <c r="J14">
-        <v>0.1130292872609318</v>
+        <v>1.016304724498272</v>
       </c>
       <c r="K14">
-        <v>0.1130292872609318</v>
+        <v>1.016304724498272</v>
       </c>
       <c r="L14">
-        <v>1.832888417990372</v>
+        <v>1.019693777894301</v>
       </c>
       <c r="M14">
-        <v>0.9164252347907598</v>
+        <v>1.060580395647786</v>
       </c>
       <c r="N14">
-        <v>0.9164252347907598</v>
+        <v>1.060580395647786</v>
       </c>
       <c r="O14">
-        <v>0.6127831398373087</v>
+        <v>1.024622211580214</v>
       </c>
       <c r="P14">
-        <v>0.6486265856141504</v>
+        <v>1.045821838597948</v>
       </c>
       <c r="Q14">
-        <v>0.6486265856141504</v>
+        <v>1.045821838597948</v>
       </c>
       <c r="R14">
-        <v>0.5147272610258458</v>
+        <v>1.038442560073029</v>
       </c>
       <c r="S14">
-        <v>0.5147272610258458</v>
+        <v>1.038442560073029</v>
       </c>
       <c r="T14">
-        <v>1.217473469954204</v>
+        <v>1.043751747869103</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.486216094593838</v>
+        <v>1.005997168405381</v>
       </c>
       <c r="D15">
-        <v>0.01444413321375922</v>
+        <v>1.037449774990111</v>
       </c>
       <c r="E15">
-        <v>0.01444413321375922</v>
+        <v>1.037449774990111</v>
       </c>
       <c r="F15">
-        <v>1.369242230548034</v>
+        <v>1.005217309344563</v>
       </c>
       <c r="G15">
-        <v>1.543102081820894</v>
+        <v>0.9917502297435904</v>
       </c>
       <c r="H15">
-        <v>0.1235815129862916</v>
+        <v>1.072599823303805</v>
       </c>
       <c r="I15">
-        <v>0.3225242475568116</v>
+        <v>0.980094481151914</v>
       </c>
       <c r="J15">
-        <v>1.486216094593838</v>
+        <v>1.005997168405381</v>
       </c>
       <c r="K15">
-        <v>1.486216094593838</v>
+        <v>1.005997168405381</v>
       </c>
       <c r="L15">
-        <v>1.369242230548034</v>
+        <v>1.005217309344563</v>
       </c>
       <c r="M15">
-        <v>0.6918431818808968</v>
+        <v>1.021333542167337</v>
       </c>
       <c r="N15">
-        <v>0.6918431818808968</v>
+        <v>1.021333542167337</v>
       </c>
       <c r="O15">
-        <v>0.568736870439535</v>
+        <v>1.00758718849553</v>
       </c>
       <c r="P15">
-        <v>0.9566341527852105</v>
+        <v>1.016221417580019</v>
       </c>
       <c r="Q15">
-        <v>0.9566341527852105</v>
+        <v>1.016221417580019</v>
       </c>
       <c r="R15">
-        <v>1.089029638237367</v>
+        <v>1.013665355286359</v>
       </c>
       <c r="S15">
-        <v>1.089029638237367</v>
+        <v>1.013665355286359</v>
       </c>
       <c r="T15">
-        <v>0.8098517167866048</v>
+        <v>1.015518131156561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.06343559185888</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="D16">
-        <v>1.565655733147242</v>
+        <v>1.064957821822117</v>
       </c>
       <c r="E16">
-        <v>1.565655733147242</v>
+        <v>1.064957821822117</v>
       </c>
       <c r="F16">
-        <v>1.101097377742069</v>
+        <v>1.012095991249685</v>
       </c>
       <c r="G16">
-        <v>0.8725775711955174</v>
+        <v>0.9856285503242744</v>
       </c>
       <c r="H16">
-        <v>2.261146220240363</v>
+        <v>1.137272415456615</v>
       </c>
       <c r="I16">
-        <v>0.6552136466428545</v>
+        <v>0.9620791790455339</v>
       </c>
       <c r="J16">
-        <v>1.06343559185888</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="K16">
-        <v>1.06343559185888</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="L16">
-        <v>1.101097377742069</v>
+        <v>1.012095991249685</v>
       </c>
       <c r="M16">
-        <v>1.333376555444655</v>
+        <v>1.038526906535901</v>
       </c>
       <c r="N16">
-        <v>1.333376555444655</v>
+        <v>1.038526906535901</v>
       </c>
       <c r="O16">
-        <v>1.107322252510722</v>
+        <v>1.013044330705778</v>
       </c>
       <c r="P16">
-        <v>1.243396234249397</v>
+        <v>1.02818251738322</v>
       </c>
       <c r="Q16">
-        <v>1.243396234249397</v>
+        <v>1.028182517383219</v>
       </c>
       <c r="R16">
-        <v>1.198406073651768</v>
+        <v>1.023010322806879</v>
       </c>
       <c r="S16">
-        <v>1.198406073651768</v>
+        <v>1.023010322806879</v>
       </c>
       <c r="T16">
-        <v>1.253187690137821</v>
+        <v>1.02825461616268</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.219359103095485</v>
+        <v>1.025174099042478</v>
       </c>
       <c r="D17">
-        <v>1.320177527839538</v>
+        <v>1.136092802124864</v>
       </c>
       <c r="E17">
-        <v>1.320177527839538</v>
+        <v>1.136092802124864</v>
       </c>
       <c r="F17">
-        <v>1.037103854602549</v>
+        <v>1.026909559658405</v>
       </c>
       <c r="G17">
-        <v>0.916050210816585</v>
+        <v>0.9650455405237227</v>
       </c>
       <c r="H17">
-        <v>1.8064966290072</v>
+        <v>1.277625685810049</v>
       </c>
       <c r="I17">
-        <v>0.7313403938608223</v>
+        <v>0.9227134672762809</v>
       </c>
       <c r="J17">
-        <v>1.219359103095485</v>
+        <v>1.025174099042478</v>
       </c>
       <c r="K17">
-        <v>1.219359103095485</v>
+        <v>1.025174099042478</v>
       </c>
       <c r="L17">
-        <v>1.037103854602549</v>
+        <v>1.026909559658405</v>
       </c>
       <c r="M17">
-        <v>1.178640691221044</v>
+        <v>1.081501180891634</v>
       </c>
       <c r="N17">
-        <v>1.178640691221044</v>
+        <v>1.081501180891634</v>
       </c>
       <c r="O17">
-        <v>1.02954059210097</v>
+        <v>1.02857194301985</v>
       </c>
       <c r="P17">
-        <v>1.192213495179191</v>
+        <v>1.062725486941916</v>
       </c>
       <c r="Q17">
-        <v>1.192213495179191</v>
+        <v>1.062725486941916</v>
       </c>
       <c r="R17">
-        <v>1.198999897158264</v>
+        <v>1.053337639967056</v>
       </c>
       <c r="S17">
-        <v>1.198999897158264</v>
+        <v>1.053337639967056</v>
       </c>
       <c r="T17">
-        <v>1.171754619870363</v>
+        <v>1.058926859072633</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.525441683210494</v>
+        <v>1.110029312596884</v>
       </c>
       <c r="D18">
-        <v>0.831607165378094</v>
+        <v>1.282250355510216</v>
       </c>
       <c r="E18">
-        <v>0.831607165378094</v>
+        <v>1.282250355510216</v>
       </c>
       <c r="F18">
-        <v>0.91022810884712</v>
+        <v>1.011449923092886</v>
       </c>
       <c r="G18">
-        <v>1.00299298399753</v>
+        <v>0.9449433416479206</v>
       </c>
       <c r="H18">
-        <v>0.901031553962064</v>
+        <v>1.46612303229978</v>
       </c>
       <c r="I18">
-        <v>0.883687939580732</v>
+        <v>0.8663516524729545</v>
       </c>
       <c r="J18">
-        <v>1.525441683210494</v>
+        <v>1.110029312596884</v>
       </c>
       <c r="K18">
-        <v>1.525441683210494</v>
+        <v>1.110029312596884</v>
       </c>
       <c r="L18">
-        <v>0.91022810884712</v>
+        <v>1.011449923092886</v>
       </c>
       <c r="M18">
-        <v>0.8709176371126071</v>
+        <v>1.14685013930155</v>
       </c>
       <c r="N18">
-        <v>0.8709176371126071</v>
+        <v>1.14685013930155</v>
       </c>
       <c r="O18">
-        <v>0.875174404601982</v>
+        <v>1.053350643692019</v>
       </c>
       <c r="P18">
-        <v>1.089092319145236</v>
+        <v>1.134576530399995</v>
       </c>
       <c r="Q18">
-        <v>1.089092319145236</v>
+        <v>1.134576530399995</v>
       </c>
       <c r="R18">
-        <v>1.198179660161551</v>
+        <v>1.128439725949217</v>
       </c>
       <c r="S18">
-        <v>1.198179660161551</v>
+        <v>1.128439725949217</v>
       </c>
       <c r="T18">
-        <v>1.009164905829339</v>
+        <v>1.113524602936774</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.75994837497572</v>
+        <v>1.007499295616701</v>
       </c>
       <c r="D19">
-        <v>0.8891741046410226</v>
+        <v>0.9985921117414067</v>
       </c>
       <c r="E19">
-        <v>0.8891741046410226</v>
+        <v>0.9985921117414067</v>
       </c>
       <c r="F19">
-        <v>0.8359522934012309</v>
+        <v>0.998825080803453</v>
       </c>
       <c r="G19">
-        <v>0.9809547930607488</v>
+        <v>0.9996074994823106</v>
       </c>
       <c r="H19">
-        <v>0.8470197035584321</v>
+        <v>0.998969699809458</v>
       </c>
       <c r="I19">
-        <v>0.8703572413579554</v>
+        <v>0.9988522212991924</v>
       </c>
       <c r="J19">
-        <v>1.75994837497572</v>
+        <v>1.007499295616701</v>
       </c>
       <c r="K19">
-        <v>1.75994837497572</v>
+        <v>1.007499295616701</v>
       </c>
       <c r="L19">
-        <v>0.8359522934012309</v>
+        <v>0.998825080803453</v>
       </c>
       <c r="M19">
-        <v>0.8625631990211268</v>
+        <v>0.9987085962724298</v>
       </c>
       <c r="N19">
-        <v>0.8625631990211268</v>
+        <v>0.9987085962724298</v>
       </c>
       <c r="O19">
-        <v>0.865161213133403</v>
+        <v>0.9987564712813507</v>
       </c>
       <c r="P19">
-        <v>1.161691591005991</v>
+        <v>1.001638829387187</v>
       </c>
       <c r="Q19">
-        <v>1.161691591005991</v>
+        <v>1.001638829387187</v>
       </c>
       <c r="R19">
-        <v>1.311255786998424</v>
+        <v>1.003103945944565</v>
       </c>
       <c r="S19">
-        <v>1.311255786998424</v>
+        <v>1.003103945944565</v>
       </c>
       <c r="T19">
-        <v>1.030567751832518</v>
+        <v>1.000390984792087</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000556684875521</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="D20">
-        <v>1.009564042616003</v>
+        <v>0.9961606458043095</v>
       </c>
       <c r="E20">
-        <v>1.009564042616003</v>
+        <v>0.9961606458043095</v>
       </c>
       <c r="F20">
-        <v>0.9969080466385997</v>
+        <v>0.9970818520572423</v>
       </c>
       <c r="G20">
-        <v>0.998390216951034</v>
+        <v>0.998785447115443</v>
       </c>
       <c r="H20">
-        <v>1.009700728530704</v>
+        <v>0.9963400615064937</v>
       </c>
       <c r="I20">
-        <v>1.000255705444245</v>
+        <v>0.9967248843523085</v>
       </c>
       <c r="J20">
-        <v>1.000556684875521</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="K20">
-        <v>1.000556684875521</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="L20">
-        <v>0.9969080466385997</v>
+        <v>0.9970818520572423</v>
       </c>
       <c r="M20">
-        <v>1.003236044627301</v>
+        <v>0.996621248930776</v>
       </c>
       <c r="N20">
-        <v>1.003236044627301</v>
+        <v>0.996621248930776</v>
       </c>
       <c r="O20">
-        <v>1.002242598232949</v>
+        <v>0.9966557940712869</v>
       </c>
       <c r="P20">
-        <v>1.002342924710041</v>
+        <v>1.004424282722092</v>
       </c>
       <c r="Q20">
-        <v>1.002342924710041</v>
+        <v>1.004424282722092</v>
       </c>
       <c r="R20">
-        <v>1.001896364751411</v>
+        <v>1.008325799617751</v>
       </c>
       <c r="S20">
-        <v>1.001896364751411</v>
+        <v>1.008325799617751</v>
       </c>
       <c r="T20">
-        <v>1.002562570842684</v>
+        <v>1.00085387352342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.013015246083423</v>
+        <v>1.026938991681904</v>
       </c>
       <c r="D21">
-        <v>0.9839310370834984</v>
+        <v>0.9950848492204629</v>
       </c>
       <c r="E21">
-        <v>0.9839310370834984</v>
+        <v>0.9950848492204629</v>
       </c>
       <c r="F21">
-        <v>1.003584299867386</v>
+        <v>0.9949596304774738</v>
       </c>
       <c r="G21">
-        <v>1.001758610689244</v>
+        <v>0.9991428890723314</v>
       </c>
       <c r="H21">
-        <v>0.9810758908467656</v>
+        <v>0.9948045068748029</v>
       </c>
       <c r="I21">
-        <v>0.9988944704466881</v>
+        <v>0.9956312778512544</v>
       </c>
       <c r="J21">
-        <v>1.013015246083423</v>
+        <v>1.026938991681904</v>
       </c>
       <c r="K21">
-        <v>1.013015246083423</v>
+        <v>1.026938991681904</v>
       </c>
       <c r="L21">
-        <v>1.003584299867386</v>
+        <v>0.9949596304774738</v>
       </c>
       <c r="M21">
-        <v>0.993757668475442</v>
+        <v>0.9950222398489683</v>
       </c>
       <c r="N21">
-        <v>0.993757668475442</v>
+        <v>0.9950222398489683</v>
       </c>
       <c r="O21">
-        <v>0.9954699357991906</v>
+        <v>0.995225252516397</v>
       </c>
       <c r="P21">
-        <v>1.000176861011436</v>
+        <v>1.005661157126614</v>
       </c>
       <c r="Q21">
-        <v>1.000176861011436</v>
+        <v>1.005661157126614</v>
       </c>
       <c r="R21">
-        <v>1.003386457279433</v>
+        <v>1.010980615765436</v>
       </c>
       <c r="S21">
-        <v>1.003386457279433</v>
+        <v>1.010980615765436</v>
       </c>
       <c r="T21">
-        <v>0.997043259169501</v>
+        <v>1.001093690863038</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9960078692838206</v>
+        <v>1.058853766549249</v>
       </c>
       <c r="D22">
-        <v>1.048439747818371</v>
+        <v>0.9898621295960529</v>
       </c>
       <c r="E22">
-        <v>1.048439747818371</v>
+        <v>0.9898621295960529</v>
       </c>
       <c r="F22">
-        <v>0.9992550848032176</v>
+        <v>0.9910459730618016</v>
       </c>
       <c r="G22">
-        <v>0.9917111600417809</v>
+        <v>0.99741334417871</v>
       </c>
       <c r="H22">
-        <v>1.065582532674876</v>
+        <v>0.9897255894252925</v>
       </c>
       <c r="I22">
-        <v>0.9930147346855682</v>
+        <v>0.990566022586159</v>
       </c>
       <c r="J22">
-        <v>0.9960078692838206</v>
+        <v>1.058853766549249</v>
       </c>
       <c r="K22">
-        <v>0.9960078692838206</v>
+        <v>1.058853766549249</v>
       </c>
       <c r="L22">
-        <v>0.9992550848032176</v>
+        <v>0.9910459730618016</v>
       </c>
       <c r="M22">
-        <v>1.023847416310794</v>
+        <v>0.9904540513289273</v>
       </c>
       <c r="N22">
-        <v>1.023847416310794</v>
+        <v>0.9904540513289273</v>
       </c>
       <c r="O22">
-        <v>1.013569855769052</v>
+        <v>0.9904913750813379</v>
       </c>
       <c r="P22">
-        <v>1.014567567301803</v>
+        <v>1.013253956402368</v>
       </c>
       <c r="Q22">
-        <v>1.014567567301803</v>
+        <v>1.013253956402368</v>
       </c>
       <c r="R22">
-        <v>1.009927642797308</v>
+        <v>1.024653908939088</v>
       </c>
       <c r="S22">
-        <v>1.009927642797308</v>
+        <v>1.024653908939088</v>
       </c>
       <c r="T22">
-        <v>1.015668521551272</v>
+        <v>1.002911137566211</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.102387669969622</v>
+      </c>
+      <c r="D23">
+        <v>0.9854855150321992</v>
+      </c>
+      <c r="E23">
+        <v>0.9854855150321992</v>
+      </c>
+      <c r="F23">
+        <v>0.9848555503704263</v>
+      </c>
+      <c r="G23">
+        <v>0.9966132708285818</v>
+      </c>
+      <c r="H23">
+        <v>0.977879193015598</v>
+      </c>
+      <c r="I23">
+        <v>0.9847095705996862</v>
+      </c>
+      <c r="J23">
+        <v>1.102387669969622</v>
+      </c>
+      <c r="K23">
+        <v>1.102387669969622</v>
+      </c>
+      <c r="L23">
+        <v>0.9848555503704263</v>
+      </c>
+      <c r="M23">
+        <v>0.9851705327013127</v>
+      </c>
+      <c r="N23">
+        <v>0.9851705327013127</v>
+      </c>
+      <c r="O23">
+        <v>0.9850168786674373</v>
+      </c>
+      <c r="P23">
+        <v>1.024242911790749</v>
+      </c>
+      <c r="Q23">
+        <v>1.024242911790749</v>
+      </c>
+      <c r="R23">
+        <v>1.043779101335467</v>
+      </c>
+      <c r="S23">
+        <v>1.043779101335467</v>
+      </c>
+      <c r="T23">
+        <v>1.005321794969352</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.4737304055118672</v>
+      </c>
+      <c r="D24">
+        <v>0.3218313991703848</v>
+      </c>
+      <c r="E24">
+        <v>0.3218313991703848</v>
+      </c>
+      <c r="F24">
+        <v>1.351068282767973</v>
+      </c>
+      <c r="G24">
+        <v>1.147339775608284</v>
+      </c>
+      <c r="H24">
+        <v>0.68392153330043</v>
+      </c>
+      <c r="I24">
+        <v>1.020460596570308</v>
+      </c>
+      <c r="J24">
+        <v>0.4737304055118672</v>
+      </c>
+      <c r="K24">
+        <v>0.4737304055118672</v>
+      </c>
+      <c r="L24">
+        <v>1.351068282767973</v>
+      </c>
+      <c r="M24">
+        <v>0.8364498409691786</v>
+      </c>
+      <c r="N24">
+        <v>0.8364498409691786</v>
+      </c>
+      <c r="O24">
+        <v>0.8977867595028882</v>
+      </c>
+      <c r="P24">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="Q24">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="R24">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="S24">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="T24">
+        <v>0.8330586654882076</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.552298692499379</v>
+      </c>
+      <c r="D25">
+        <v>1.713282696435613</v>
+      </c>
+      <c r="E25">
+        <v>1.713282696435613</v>
+      </c>
+      <c r="F25">
+        <v>0.4915436637177764</v>
+      </c>
+      <c r="G25">
+        <v>0.7928834745362943</v>
+      </c>
+      <c r="H25">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="I25">
+        <v>1.034762081401286</v>
+      </c>
+      <c r="J25">
+        <v>1.552298692499379</v>
+      </c>
+      <c r="K25">
+        <v>1.552298692499379</v>
+      </c>
+      <c r="L25">
+        <v>0.4915436637177764</v>
+      </c>
+      <c r="M25">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="N25">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="O25">
+        <v>1.079862813851558</v>
+      </c>
+      <c r="P25">
+        <v>1.252375017550923</v>
+      </c>
+      <c r="Q25">
+        <v>1.252375017550923</v>
+      </c>
+      <c r="R25">
+        <v>1.327355936288037</v>
+      </c>
+      <c r="S25">
+        <v>1.327355936288037</v>
+      </c>
+      <c r="T25">
+        <v>1.193245555479191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="D26">
+        <v>-3.794840885238125E-05</v>
+      </c>
+      <c r="E26">
+        <v>-3.794840885238125E-05</v>
+      </c>
+      <c r="F26">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="G26">
+        <v>1.250686388972495</v>
+      </c>
+      <c r="H26">
+        <v>4.102775723979871</v>
+      </c>
+      <c r="I26">
+        <v>0.005498949930406612</v>
+      </c>
+      <c r="J26">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="K26">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="L26">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="M26">
+        <v>0.9164252347907598</v>
+      </c>
+      <c r="N26">
+        <v>0.9164252347907598</v>
+      </c>
+      <c r="O26">
+        <v>0.6127831398373087</v>
+      </c>
+      <c r="P26">
+        <v>0.6486265856141504</v>
+      </c>
+      <c r="Q26">
+        <v>0.6486265856141504</v>
+      </c>
+      <c r="R26">
+        <v>0.5147272610258458</v>
+      </c>
+      <c r="S26">
+        <v>0.5147272610258458</v>
+      </c>
+      <c r="T26">
+        <v>1.217473469954204</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="D27">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="E27">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="F27">
+        <v>1.369242230548034</v>
+      </c>
+      <c r="G27">
+        <v>1.543102081820894</v>
+      </c>
+      <c r="H27">
+        <v>0.1235815129862916</v>
+      </c>
+      <c r="I27">
+        <v>0.3225242475568116</v>
+      </c>
+      <c r="J27">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="K27">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="L27">
+        <v>1.369242230548034</v>
+      </c>
+      <c r="M27">
+        <v>0.6918431818808968</v>
+      </c>
+      <c r="N27">
+        <v>0.6918431818808968</v>
+      </c>
+      <c r="O27">
+        <v>0.568736870439535</v>
+      </c>
+      <c r="P27">
+        <v>0.9566341527852105</v>
+      </c>
+      <c r="Q27">
+        <v>0.9566341527852105</v>
+      </c>
+      <c r="R27">
+        <v>1.089029638237367</v>
+      </c>
+      <c r="S27">
+        <v>1.089029638237367</v>
+      </c>
+      <c r="T27">
+        <v>0.8098517167866048</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.06343559185888</v>
+      </c>
+      <c r="D28">
+        <v>1.565655733147242</v>
+      </c>
+      <c r="E28">
+        <v>1.565655733147242</v>
+      </c>
+      <c r="F28">
+        <v>1.101097377742069</v>
+      </c>
+      <c r="G28">
+        <v>0.8725775711955174</v>
+      </c>
+      <c r="H28">
+        <v>2.261146220240363</v>
+      </c>
+      <c r="I28">
+        <v>0.6552136466428545</v>
+      </c>
+      <c r="J28">
+        <v>1.06343559185888</v>
+      </c>
+      <c r="K28">
+        <v>1.06343559185888</v>
+      </c>
+      <c r="L28">
+        <v>1.101097377742069</v>
+      </c>
+      <c r="M28">
+        <v>1.333376555444655</v>
+      </c>
+      <c r="N28">
+        <v>1.333376555444655</v>
+      </c>
+      <c r="O28">
+        <v>1.107322252510722</v>
+      </c>
+      <c r="P28">
+        <v>1.243396234249397</v>
+      </c>
+      <c r="Q28">
+        <v>1.243396234249397</v>
+      </c>
+      <c r="R28">
+        <v>1.198406073651768</v>
+      </c>
+      <c r="S28">
+        <v>1.198406073651768</v>
+      </c>
+      <c r="T28">
+        <v>1.253187690137821</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.219359103095485</v>
+      </c>
+      <c r="D29">
+        <v>1.320177527839538</v>
+      </c>
+      <c r="E29">
+        <v>1.320177527839538</v>
+      </c>
+      <c r="F29">
+        <v>1.037103854602549</v>
+      </c>
+      <c r="G29">
+        <v>0.916050210816585</v>
+      </c>
+      <c r="H29">
+        <v>1.8064966290072</v>
+      </c>
+      <c r="I29">
+        <v>0.7313403938608223</v>
+      </c>
+      <c r="J29">
+        <v>1.219359103095485</v>
+      </c>
+      <c r="K29">
+        <v>1.219359103095485</v>
+      </c>
+      <c r="L29">
+        <v>1.037103854602549</v>
+      </c>
+      <c r="M29">
+        <v>1.178640691221044</v>
+      </c>
+      <c r="N29">
+        <v>1.178640691221044</v>
+      </c>
+      <c r="O29">
+        <v>1.02954059210097</v>
+      </c>
+      <c r="P29">
+        <v>1.192213495179191</v>
+      </c>
+      <c r="Q29">
+        <v>1.192213495179191</v>
+      </c>
+      <c r="R29">
+        <v>1.198999897158264</v>
+      </c>
+      <c r="S29">
+        <v>1.198999897158264</v>
+      </c>
+      <c r="T29">
+        <v>1.171754619870363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.525441683210494</v>
+      </c>
+      <c r="D30">
+        <v>0.831607165378094</v>
+      </c>
+      <c r="E30">
+        <v>0.831607165378094</v>
+      </c>
+      <c r="F30">
+        <v>0.91022810884712</v>
+      </c>
+      <c r="G30">
+        <v>1.00299298399753</v>
+      </c>
+      <c r="H30">
+        <v>0.901031553962064</v>
+      </c>
+      <c r="I30">
+        <v>0.883687939580732</v>
+      </c>
+      <c r="J30">
+        <v>1.525441683210494</v>
+      </c>
+      <c r="K30">
+        <v>1.525441683210494</v>
+      </c>
+      <c r="L30">
+        <v>0.91022810884712</v>
+      </c>
+      <c r="M30">
+        <v>0.8709176371126071</v>
+      </c>
+      <c r="N30">
+        <v>0.8709176371126071</v>
+      </c>
+      <c r="O30">
+        <v>0.875174404601982</v>
+      </c>
+      <c r="P30">
+        <v>1.089092319145236</v>
+      </c>
+      <c r="Q30">
+        <v>1.089092319145236</v>
+      </c>
+      <c r="R30">
+        <v>1.198179660161551</v>
+      </c>
+      <c r="S30">
+        <v>1.198179660161551</v>
+      </c>
+      <c r="T30">
+        <v>1.009164905829339</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.75994837497572</v>
+      </c>
+      <c r="D31">
+        <v>0.8891741046410226</v>
+      </c>
+      <c r="E31">
+        <v>0.8891741046410226</v>
+      </c>
+      <c r="F31">
+        <v>0.8359522934012309</v>
+      </c>
+      <c r="G31">
+        <v>0.9809547930607488</v>
+      </c>
+      <c r="H31">
+        <v>0.8470197035584321</v>
+      </c>
+      <c r="I31">
+        <v>0.8703572413579554</v>
+      </c>
+      <c r="J31">
+        <v>1.75994837497572</v>
+      </c>
+      <c r="K31">
+        <v>1.75994837497572</v>
+      </c>
+      <c r="L31">
+        <v>0.8359522934012309</v>
+      </c>
+      <c r="M31">
+        <v>0.8625631990211268</v>
+      </c>
+      <c r="N31">
+        <v>0.8625631990211268</v>
+      </c>
+      <c r="O31">
+        <v>0.865161213133403</v>
+      </c>
+      <c r="P31">
+        <v>1.161691591005991</v>
+      </c>
+      <c r="Q31">
+        <v>1.161691591005991</v>
+      </c>
+      <c r="R31">
+        <v>1.311255786998424</v>
+      </c>
+      <c r="S31">
+        <v>1.311255786998424</v>
+      </c>
+      <c r="T31">
+        <v>1.030567751832518</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.004719418325315</v>
+      </c>
+      <c r="D32">
+        <v>1.785510813971918</v>
+      </c>
+      <c r="E32">
+        <v>1.785510813971918</v>
+      </c>
+      <c r="F32">
+        <v>1.148779232241096</v>
+      </c>
+      <c r="G32">
+        <v>0.8257481789041095</v>
+      </c>
+      <c r="H32">
+        <v>2.677672409050685</v>
+      </c>
+      <c r="I32">
+        <v>0.571368602762192</v>
+      </c>
+      <c r="J32">
+        <v>1.004719418325315</v>
+      </c>
+      <c r="K32">
+        <v>1.004719418325315</v>
+      </c>
+      <c r="L32">
+        <v>1.148779232241096</v>
+      </c>
+      <c r="M32">
+        <v>1.467145023106507</v>
+      </c>
+      <c r="N32">
+        <v>1.467145023106507</v>
+      </c>
+      <c r="O32">
+        <v>1.168552882991735</v>
+      </c>
+      <c r="P32">
+        <v>1.31300315484611</v>
+      </c>
+      <c r="Q32">
+        <v>1.31300315484611</v>
+      </c>
+      <c r="R32">
+        <v>1.235932220715911</v>
+      </c>
+      <c r="S32">
+        <v>1.235932220715911</v>
+      </c>
+      <c r="T32">
+        <v>1.335633109209219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="D33">
+        <v>2.117882948532105</v>
+      </c>
+      <c r="E33">
+        <v>2.117882948532105</v>
+      </c>
+      <c r="F33">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="G33">
+        <v>0.8011603088052631</v>
+      </c>
+      <c r="H33">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="I33">
+        <v>0.5875345469944737</v>
+      </c>
+      <c r="J33">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="K33">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="L33">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="M33">
+        <v>1.610887203055526</v>
+      </c>
+      <c r="N33">
+        <v>1.610887203055526</v>
+      </c>
+      <c r="O33">
+        <v>1.269769651035175</v>
+      </c>
+      <c r="P33">
+        <v>1.429189784383737</v>
+      </c>
+      <c r="Q33">
+        <v>1.429189784383737</v>
+      </c>
+      <c r="R33">
+        <v>1.338341075047842</v>
+      </c>
+      <c r="S33">
+        <v>1.338341075047842</v>
+      </c>
+      <c r="T33">
+        <v>1.374708630782614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>2.117895312562947</v>
+      </c>
+      <c r="D34">
+        <v>3.4304245191</v>
+      </c>
+      <c r="E34">
+        <v>3.4304245191</v>
+      </c>
+      <c r="F34">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="G34">
+        <v>0.3592011805052631</v>
+      </c>
+      <c r="H34">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="I34">
+        <v>1.881666172631579</v>
+      </c>
+      <c r="J34">
+        <v>2.117895312562947</v>
+      </c>
+      <c r="K34">
+        <v>2.117895312562947</v>
+      </c>
+      <c r="L34">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="M34">
+        <v>1.746360228144737</v>
+      </c>
+      <c r="N34">
+        <v>1.746360228144737</v>
+      </c>
+      <c r="O34">
+        <v>1.791462209640351</v>
+      </c>
+      <c r="P34">
+        <v>1.87020525628414</v>
+      </c>
+      <c r="Q34">
+        <v>1.87020525628414</v>
+      </c>
+      <c r="R34">
+        <v>1.932127770353842</v>
+      </c>
+      <c r="S34">
+        <v>1.932127770353842</v>
+      </c>
+      <c r="T34">
+        <v>1.308853624881719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>4.582116472685923</v>
+      </c>
+      <c r="D35">
+        <v>0.4147226635749104</v>
+      </c>
+      <c r="E35">
+        <v>0.4147226635749104</v>
+      </c>
+      <c r="F35">
+        <v>0.4692235514829142</v>
+      </c>
+      <c r="G35">
+        <v>0.8044020482867532</v>
+      </c>
+      <c r="H35">
+        <v>0.450935656972601</v>
+      </c>
+      <c r="I35">
+        <v>0.47258068407758</v>
+      </c>
+      <c r="J35">
+        <v>4.582116472685923</v>
+      </c>
+      <c r="K35">
+        <v>4.582116472685923</v>
+      </c>
+      <c r="L35">
+        <v>0.4692235514829142</v>
+      </c>
+      <c r="M35">
+        <v>0.4419731075289123</v>
+      </c>
+      <c r="N35">
+        <v>0.4419731075289123</v>
+      </c>
+      <c r="O35">
+        <v>0.4521756330451348</v>
+      </c>
+      <c r="P35">
+        <v>1.822020895914583</v>
+      </c>
+      <c r="Q35">
+        <v>1.822020895914582</v>
+      </c>
+      <c r="R35">
+        <v>2.512044790107418</v>
+      </c>
+      <c r="S35">
+        <v>2.512044790107418</v>
+      </c>
+      <c r="T35">
+        <v>1.198996846180113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000556684875521</v>
+      </c>
+      <c r="D36">
+        <v>1.009564042616003</v>
+      </c>
+      <c r="E36">
+        <v>1.009564042616003</v>
+      </c>
+      <c r="F36">
+        <v>0.9969080466385997</v>
+      </c>
+      <c r="G36">
+        <v>0.998390216951034</v>
+      </c>
+      <c r="H36">
+        <v>1.009700728530704</v>
+      </c>
+      <c r="I36">
+        <v>1.000255705444245</v>
+      </c>
+      <c r="J36">
+        <v>1.000556684875521</v>
+      </c>
+      <c r="K36">
+        <v>1.000556684875521</v>
+      </c>
+      <c r="L36">
+        <v>0.9969080466385997</v>
+      </c>
+      <c r="M36">
+        <v>1.003236044627301</v>
+      </c>
+      <c r="N36">
+        <v>1.003236044627301</v>
+      </c>
+      <c r="O36">
+        <v>1.002242598232949</v>
+      </c>
+      <c r="P36">
+        <v>1.002342924710041</v>
+      </c>
+      <c r="Q36">
+        <v>1.002342924710041</v>
+      </c>
+      <c r="R36">
+        <v>1.001896364751411</v>
+      </c>
+      <c r="S36">
+        <v>1.001896364751411</v>
+      </c>
+      <c r="T36">
+        <v>1.002562570842684</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.013015246083423</v>
+      </c>
+      <c r="D37">
+        <v>0.9839310370834984</v>
+      </c>
+      <c r="E37">
+        <v>0.9839310370834984</v>
+      </c>
+      <c r="F37">
+        <v>1.003584299867386</v>
+      </c>
+      <c r="G37">
+        <v>1.001758610689244</v>
+      </c>
+      <c r="H37">
+        <v>0.9810758908467656</v>
+      </c>
+      <c r="I37">
+        <v>0.9988944704466881</v>
+      </c>
+      <c r="J37">
+        <v>1.013015246083423</v>
+      </c>
+      <c r="K37">
+        <v>1.013015246083423</v>
+      </c>
+      <c r="L37">
+        <v>1.003584299867386</v>
+      </c>
+      <c r="M37">
+        <v>0.993757668475442</v>
+      </c>
+      <c r="N37">
+        <v>0.993757668475442</v>
+      </c>
+      <c r="O37">
+        <v>0.9954699357991906</v>
+      </c>
+      <c r="P37">
+        <v>1.000176861011436</v>
+      </c>
+      <c r="Q37">
+        <v>1.000176861011436</v>
+      </c>
+      <c r="R37">
+        <v>1.003386457279433</v>
+      </c>
+      <c r="S37">
+        <v>1.003386457279433</v>
+      </c>
+      <c r="T37">
+        <v>0.997043259169501</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9960078692838206</v>
+      </c>
+      <c r="D38">
+        <v>1.048439747818371</v>
+      </c>
+      <c r="E38">
+        <v>1.048439747818371</v>
+      </c>
+      <c r="F38">
+        <v>0.9992550848032176</v>
+      </c>
+      <c r="G38">
+        <v>0.9917111600417809</v>
+      </c>
+      <c r="H38">
+        <v>1.065582532674876</v>
+      </c>
+      <c r="I38">
+        <v>0.9930147346855682</v>
+      </c>
+      <c r="J38">
+        <v>0.9960078692838206</v>
+      </c>
+      <c r="K38">
+        <v>0.9960078692838206</v>
+      </c>
+      <c r="L38">
+        <v>0.9992550848032176</v>
+      </c>
+      <c r="M38">
+        <v>1.023847416310794</v>
+      </c>
+      <c r="N38">
+        <v>1.023847416310794</v>
+      </c>
+      <c r="O38">
+        <v>1.013569855769052</v>
+      </c>
+      <c r="P38">
+        <v>1.014567567301803</v>
+      </c>
+      <c r="Q38">
+        <v>1.014567567301803</v>
+      </c>
+      <c r="R38">
+        <v>1.009927642797308</v>
+      </c>
+      <c r="S38">
+        <v>1.009927642797308</v>
+      </c>
+      <c r="T38">
+        <v>1.015668521551272</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9441300260527323</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.161619258063608</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.161619258063608</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9659952262325709</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9767460430876002</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.226324100103181</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9886503892955336</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9441300260527323</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.9441300260527323</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9659952262325709</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.063807242148089</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>1.063807242148089</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.038754957863904</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>1.02391483678297</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.02391483678297</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>1.003968634100411</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.003968634100411</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>1.043910840472538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.8355971789942269</v>
+      </c>
+      <c r="D40">
+        <v>2.082275780922206</v>
+      </c>
+      <c r="E40">
+        <v>2.082275780922206</v>
+      </c>
+      <c r="F40">
+        <v>0.8639189916810814</v>
+      </c>
+      <c r="G40">
+        <v>0.849326470016856</v>
+      </c>
+      <c r="H40">
+        <v>0.8419087286199878</v>
+      </c>
+      <c r="I40">
+        <v>1.214864827568326</v>
+      </c>
+      <c r="J40">
+        <v>0.8355971789942269</v>
+      </c>
+      <c r="K40">
+        <v>0.8355971789942269</v>
+      </c>
+      <c r="L40">
+        <v>0.8639189916810814</v>
+      </c>
+      <c r="M40">
+        <v>1.473097386301644</v>
+      </c>
+      <c r="N40">
+        <v>1.473097386301644</v>
+      </c>
+      <c r="O40">
+        <v>1.387019866723871</v>
+      </c>
+      <c r="P40">
+        <v>1.260597317199171</v>
+      </c>
+      <c r="Q40">
+        <v>1.260597317199172</v>
+      </c>
+      <c r="R40">
+        <v>1.154347282647935</v>
+      </c>
+      <c r="S40">
+        <v>1.154347282647935</v>
+      </c>
+      <c r="T40">
+        <v>1.114648662967114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.117040017880884</v>
+      </c>
+      <c r="D41">
+        <v>1.247414183118359</v>
+      </c>
+      <c r="E41">
+        <v>1.247414183118359</v>
+      </c>
+      <c r="F41">
+        <v>0.8293729336930735</v>
+      </c>
+      <c r="G41">
+        <v>0.9091571679973114</v>
+      </c>
+      <c r="H41">
+        <v>0.7293188270252077</v>
+      </c>
+      <c r="I41">
+        <v>1.171778814479919</v>
+      </c>
+      <c r="J41">
+        <v>1.117040017880884</v>
+      </c>
+      <c r="K41">
+        <v>1.117040017880884</v>
+      </c>
+      <c r="L41">
+        <v>0.8293729336930735</v>
+      </c>
+      <c r="M41">
+        <v>1.038393558405716</v>
+      </c>
+      <c r="N41">
+        <v>1.038393558405716</v>
+      </c>
+      <c r="O41">
+        <v>1.082855310430451</v>
+      </c>
+      <c r="P41">
+        <v>1.064609044897439</v>
+      </c>
+      <c r="Q41">
+        <v>1.064609044897439</v>
+      </c>
+      <c r="R41">
+        <v>1.0777167881433</v>
+      </c>
+      <c r="S41">
+        <v>1.0777167881433</v>
+      </c>
+      <c r="T41">
+        <v>1.000680324032459</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.5929512978338333</v>
+      </c>
+      <c r="D42">
+        <v>1.768014051089448</v>
+      </c>
+      <c r="E42">
+        <v>1.768014051089448</v>
+      </c>
+      <c r="F42">
+        <v>1.102776076895186</v>
+      </c>
+      <c r="G42">
+        <v>0.9753916514716356</v>
+      </c>
+      <c r="H42">
+        <v>1.092653092568021</v>
+      </c>
+      <c r="I42">
+        <v>1.017846114903175</v>
+      </c>
+      <c r="J42">
+        <v>0.5929512978338333</v>
+      </c>
+      <c r="K42">
+        <v>0.5929512978338333</v>
+      </c>
+      <c r="L42">
+        <v>1.102776076895186</v>
+      </c>
+      <c r="M42">
+        <v>1.435395063992317</v>
+      </c>
+      <c r="N42">
+        <v>1.435395063992317</v>
+      </c>
+      <c r="O42">
+        <v>1.296212080962603</v>
+      </c>
+      <c r="P42">
+        <v>1.154580475272822</v>
+      </c>
+      <c r="Q42">
+        <v>1.154580475272822</v>
+      </c>
+      <c r="R42">
+        <v>1.014173180913075</v>
+      </c>
+      <c r="S42">
+        <v>1.014173180913075</v>
+      </c>
+      <c r="T42">
+        <v>1.09160538079355</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[3, 2, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
-  </si>
-  <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
-    <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.005997168405381</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="D3">
-        <v>1.037449774990111</v>
+        <v>0.9961606458043095</v>
       </c>
       <c r="E3">
-        <v>1.005217309344563</v>
+        <v>0.9961606458043095</v>
       </c>
       <c r="F3">
-        <v>1.005997168405381</v>
+        <v>0.9970818520572423</v>
       </c>
       <c r="G3">
-        <v>1.072599823303805</v>
+        <v>0.998785447115443</v>
       </c>
       <c r="H3">
-        <v>0.980094481151914</v>
+        <v>0.9963400615064937</v>
       </c>
       <c r="I3">
-        <v>0.9917502297435906</v>
+        <v>0.9967248843523085</v>
       </c>
       <c r="J3">
-        <v>1.037449774990111</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="K3">
-        <v>1.005997168405381</v>
+        <v>1.020030350304725</v>
       </c>
       <c r="L3">
-        <v>1.005217309344563</v>
+        <v>0.9970818520572423</v>
       </c>
       <c r="M3">
-        <v>1.021333542167337</v>
+        <v>0.996621248930776</v>
       </c>
       <c r="N3">
-        <v>1.021333542167337</v>
+        <v>0.996621248930776</v>
       </c>
       <c r="O3">
-        <v>1.00758718849553</v>
+        <v>0.9966557940712869</v>
       </c>
       <c r="P3">
-        <v>1.016221417580019</v>
+        <v>1.004424282722092</v>
       </c>
       <c r="Q3">
-        <v>1.016221417580019</v>
+        <v>1.004424282722092</v>
       </c>
       <c r="R3">
-        <v>1.013665355286359</v>
+        <v>1.008325799617751</v>
       </c>
       <c r="S3">
-        <v>1.013665355286359</v>
+        <v>1.008325799617751</v>
       </c>
       <c r="T3">
-        <v>1.015518131156561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>1.00085387352342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.007493739077857</v>
+        <v>0.8355971789942269</v>
       </c>
       <c r="D4">
-        <v>1.064957821822117</v>
+        <v>2.082275780922206</v>
       </c>
       <c r="E4">
-        <v>1.012095991249685</v>
+        <v>2.082275780922206</v>
       </c>
       <c r="F4">
-        <v>1.007493739077857</v>
+        <v>0.8639189916810814</v>
       </c>
       <c r="G4">
-        <v>1.137272415456615</v>
+        <v>0.849326470016856</v>
       </c>
       <c r="H4">
-        <v>0.9620791790455339</v>
+        <v>0.8419087286199878</v>
       </c>
       <c r="I4">
-        <v>0.9856285503242744</v>
+        <v>1.214864827568326</v>
       </c>
       <c r="J4">
-        <v>1.064957821822117</v>
+        <v>0.8355971789942269</v>
       </c>
       <c r="K4">
-        <v>1.007493739077857</v>
+        <v>0.8355971789942269</v>
       </c>
       <c r="L4">
-        <v>1.012095991249685</v>
+        <v>0.8639189916810814</v>
       </c>
       <c r="M4">
-        <v>1.038526906535901</v>
+        <v>1.473097386301644</v>
       </c>
       <c r="N4">
-        <v>1.038526906535901</v>
+        <v>1.473097386301644</v>
       </c>
       <c r="O4">
-        <v>1.013044330705778</v>
+        <v>1.387019866723871</v>
       </c>
       <c r="P4">
-        <v>1.02818251738322</v>
+        <v>1.260597317199171</v>
       </c>
       <c r="Q4">
-        <v>1.028182517383219</v>
+        <v>1.260597317199172</v>
       </c>
       <c r="R4">
-        <v>1.023010322806879</v>
+        <v>1.154347282647935</v>
       </c>
       <c r="S4">
-        <v>1.023010322806879</v>
+        <v>1.154347282647935</v>
       </c>
       <c r="T4">
-        <v>1.02825461616268</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>1.114648662967114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.025174099042478</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="D5">
-        <v>1.136092802124864</v>
+        <v>0.867838006209775</v>
       </c>
       <c r="E5">
-        <v>1.026909559658405</v>
+        <v>0.867838006209775</v>
       </c>
       <c r="F5">
-        <v>1.025174099042478</v>
+        <v>0.8829594171521603</v>
       </c>
       <c r="G5">
-        <v>1.277625685810049</v>
+        <v>0.9810661891932296</v>
       </c>
       <c r="H5">
-        <v>0.9227134672762809</v>
+        <v>0.9054933994113786</v>
       </c>
       <c r="I5">
-        <v>0.9650455405237229</v>
+        <v>0.871280693400832</v>
       </c>
       <c r="J5">
-        <v>1.136092802124864</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="K5">
-        <v>1.025174099042478</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="L5">
-        <v>1.026909559658405</v>
+        <v>0.8829594171521603</v>
       </c>
       <c r="M5">
-        <v>1.081501180891634</v>
+        <v>0.8753987116809676</v>
       </c>
       <c r="N5">
-        <v>1.081501180891634</v>
+        <v>0.8753987116809676</v>
       </c>
       <c r="O5">
-        <v>1.02857194301985</v>
+        <v>0.8740260389209223</v>
       </c>
       <c r="P5">
-        <v>1.062725486941916</v>
+        <v>1.139063407674003</v>
       </c>
       <c r="Q5">
-        <v>1.062725486941916</v>
+        <v>1.139063407674003</v>
       </c>
       <c r="R5">
-        <v>1.053337639967056</v>
+        <v>1.270895755670521</v>
       </c>
       <c r="S5">
-        <v>1.053337639967056</v>
+        <v>1.270895755670521</v>
       </c>
       <c r="T5">
-        <v>1.058926859072633</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>1.029171750837908</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.110029312596884</v>
+        <v>4.582116472685923</v>
       </c>
       <c r="D6">
-        <v>1.282250355510216</v>
+        <v>0.4147226635749104</v>
       </c>
       <c r="E6">
-        <v>1.011449923092886</v>
+        <v>0.4147226635749104</v>
       </c>
       <c r="F6">
-        <v>1.110029312596884</v>
+        <v>0.4692235514829142</v>
       </c>
       <c r="G6">
-        <v>1.46612303229978</v>
+        <v>0.8044020482867532</v>
       </c>
       <c r="H6">
-        <v>0.8663516524729545</v>
+        <v>0.450935656972601</v>
       </c>
       <c r="I6">
-        <v>0.9449433416479206</v>
+        <v>0.47258068407758</v>
       </c>
       <c r="J6">
-        <v>1.282250355510216</v>
+        <v>4.582116472685923</v>
       </c>
       <c r="K6">
-        <v>1.110029312596884</v>
+        <v>4.582116472685923</v>
       </c>
       <c r="L6">
-        <v>1.011449923092886</v>
+        <v>0.4692235514829142</v>
       </c>
       <c r="M6">
-        <v>1.14685013930155</v>
+        <v>0.4419731075289123</v>
       </c>
       <c r="N6">
-        <v>1.14685013930155</v>
+        <v>0.4419731075289123</v>
       </c>
       <c r="O6">
-        <v>1.053350643692019</v>
+        <v>0.4521756330451348</v>
       </c>
       <c r="P6">
-        <v>1.134576530399995</v>
+        <v>1.822020895914583</v>
       </c>
       <c r="Q6">
-        <v>1.134576530399995</v>
+        <v>1.822020895914582</v>
       </c>
       <c r="R6">
-        <v>1.128439725949217</v>
+        <v>2.512044790107418</v>
       </c>
       <c r="S6">
-        <v>1.128439725949217</v>
+        <v>2.512044790107418</v>
       </c>
       <c r="T6">
-        <v>1.113524602936774</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>1.198996846180113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.007499295616701</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="D7">
-        <v>0.9985921117414067</v>
+        <v>1.038525079572818</v>
       </c>
       <c r="E7">
-        <v>0.9988250808034527</v>
+        <v>1.038525079572818</v>
       </c>
       <c r="F7">
-        <v>1.007499295616701</v>
+        <v>1.001998159897869</v>
       </c>
       <c r="G7">
-        <v>0.9989696998094576</v>
+        <v>0.9909840206094394</v>
       </c>
       <c r="H7">
-        <v>0.9988522212991933</v>
+        <v>1.065923499177135</v>
       </c>
       <c r="I7">
-        <v>0.9996074994823103</v>
+        <v>0.9874319103075205</v>
       </c>
       <c r="J7">
-        <v>0.9985921117414067</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="K7">
-        <v>1.007499295616701</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="L7">
-        <v>0.9988250808034527</v>
+        <v>1.001998159897869</v>
       </c>
       <c r="M7">
-        <v>0.9987085962724297</v>
+        <v>1.020261619735344</v>
       </c>
       <c r="N7">
-        <v>0.9987085962724297</v>
+        <v>1.020261619735344</v>
       </c>
       <c r="O7">
-        <v>0.9987564712813509</v>
+        <v>1.009318383259403</v>
       </c>
       <c r="P7">
-        <v>1.001638829387187</v>
+        <v>1.012592105261432</v>
       </c>
       <c r="Q7">
-        <v>1.001638829387187</v>
+        <v>1.012592105261432</v>
       </c>
       <c r="R7">
-        <v>1.003103945944565</v>
+        <v>1.008757348024476</v>
       </c>
       <c r="S7">
-        <v>1.003103945944565</v>
+        <v>1.008757348024476</v>
       </c>
       <c r="T7">
-        <v>1.000390984792087</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>1.013685957646399</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.020030350304724</v>
+        <v>1.013015246083423</v>
       </c>
       <c r="D8">
-        <v>0.9961606458043105</v>
+        <v>0.9839310370834984</v>
       </c>
       <c r="E8">
-        <v>0.9970818520572419</v>
+        <v>0.9839310370834984</v>
       </c>
       <c r="F8">
-        <v>1.020030350304724</v>
+        <v>1.003584299867386</v>
       </c>
       <c r="G8">
-        <v>0.9963400615064937</v>
+        <v>1.001758610689244</v>
       </c>
       <c r="H8">
-        <v>0.996724884352309</v>
+        <v>0.9810758908467656</v>
       </c>
       <c r="I8">
-        <v>0.9987854471154424</v>
+        <v>0.9988944704466881</v>
       </c>
       <c r="J8">
-        <v>0.9961606458043105</v>
+        <v>1.013015246083423</v>
       </c>
       <c r="K8">
-        <v>1.020030350304724</v>
+        <v>1.013015246083423</v>
       </c>
       <c r="L8">
-        <v>0.9970818520572419</v>
+        <v>1.003584299867386</v>
       </c>
       <c r="M8">
-        <v>0.9966212489307762</v>
+        <v>0.993757668475442</v>
       </c>
       <c r="N8">
-        <v>0.9966212489307762</v>
+        <v>0.993757668475442</v>
       </c>
       <c r="O8">
-        <v>0.9966557940712871</v>
+        <v>0.9954699357991906</v>
       </c>
       <c r="P8">
-        <v>1.004424282722092</v>
+        <v>1.000176861011436</v>
       </c>
       <c r="Q8">
-        <v>1.004424282722092</v>
+        <v>1.000176861011436</v>
       </c>
       <c r="R8">
-        <v>1.00832579961775</v>
+        <v>1.003386457279433</v>
       </c>
       <c r="S8">
-        <v>1.00832579961775</v>
+        <v>1.003386457279433</v>
       </c>
       <c r="T8">
-        <v>1.00085387352342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.997043259169501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.026938991681904</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="D9">
-        <v>0.9950848492204629</v>
+        <v>1.064957821822117</v>
       </c>
       <c r="E9">
-        <v>0.9949596304774743</v>
+        <v>1.064957821822117</v>
       </c>
       <c r="F9">
-        <v>1.026938991681904</v>
+        <v>1.012095991249685</v>
       </c>
       <c r="G9">
-        <v>0.9948045068748029</v>
+        <v>0.9856285503242744</v>
       </c>
       <c r="H9">
-        <v>0.9956312778512542</v>
+        <v>1.137272415456615</v>
       </c>
       <c r="I9">
-        <v>0.9991428890723314</v>
+        <v>0.9620791790455339</v>
       </c>
       <c r="J9">
-        <v>0.9950848492204629</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="K9">
-        <v>1.026938991681904</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="L9">
-        <v>0.9949596304774743</v>
+        <v>1.012095991249685</v>
       </c>
       <c r="M9">
-        <v>0.9950222398489685</v>
+        <v>1.038526906535901</v>
       </c>
       <c r="N9">
-        <v>0.9950222398489685</v>
+        <v>1.038526906535901</v>
       </c>
       <c r="O9">
-        <v>0.995225252516397</v>
+        <v>1.013044330705778</v>
       </c>
       <c r="P9">
-        <v>1.005661157126614</v>
+        <v>1.02818251738322</v>
       </c>
       <c r="Q9">
-        <v>1.005661157126614</v>
+        <v>1.028182517383219</v>
       </c>
       <c r="R9">
-        <v>1.010980615765436</v>
+        <v>1.023010322806879</v>
       </c>
       <c r="S9">
-        <v>1.010980615765436</v>
+        <v>1.023010322806879</v>
       </c>
       <c r="T9">
-        <v>1.001093690863038</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>1.02825461616268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.058853766549249</v>
+        <v>4.699170454118732</v>
       </c>
       <c r="D10">
-        <v>0.9898621295960529</v>
+        <v>0.4440216529142558</v>
       </c>
       <c r="E10">
-        <v>0.9910459730618013</v>
+        <v>0.4440216529142558</v>
       </c>
       <c r="F10">
-        <v>1.058853766549249</v>
+        <v>0.4344632779136979</v>
       </c>
       <c r="G10">
-        <v>0.9897255894252925</v>
+        <v>0.794726067537168</v>
       </c>
       <c r="H10">
-        <v>0.990566022586159</v>
+        <v>0.4324149958683023</v>
       </c>
       <c r="I10">
-        <v>0.99741334417871</v>
+        <v>0.4599032230569868</v>
       </c>
       <c r="J10">
-        <v>0.9898621295960529</v>
+        <v>4.699170454118732</v>
       </c>
       <c r="K10">
-        <v>1.058853766549249</v>
+        <v>4.699170454118732</v>
       </c>
       <c r="L10">
-        <v>0.9910459730618013</v>
+        <v>0.4344632779136979</v>
       </c>
       <c r="M10">
-        <v>0.9904540513289271</v>
+        <v>0.4392424654139768</v>
       </c>
       <c r="N10">
-        <v>0.9904540513289271</v>
+        <v>0.4392424654139768</v>
       </c>
       <c r="O10">
-        <v>0.9904913750813377</v>
+        <v>0.4461293846283135</v>
       </c>
       <c r="P10">
-        <v>1.013253956402368</v>
+        <v>1.859218461648895</v>
       </c>
       <c r="Q10">
-        <v>1.013253956402368</v>
+        <v>1.859218461648895</v>
       </c>
       <c r="R10">
-        <v>1.024653908939088</v>
+        <v>2.569206459766354</v>
       </c>
       <c r="S10">
-        <v>1.024653908939088</v>
+        <v>2.569206459766354</v>
       </c>
       <c r="T10">
-        <v>1.002911137566211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>1.21078327856819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.102387669969622</v>
+        <v>0.9615484995348205</v>
       </c>
       <c r="D11">
-        <v>0.9854855150321993</v>
+        <v>2.268509647908652</v>
       </c>
       <c r="E11">
-        <v>0.9848555503704263</v>
+        <v>2.268509647908652</v>
       </c>
       <c r="F11">
-        <v>1.102387669969622</v>
+        <v>0.7064863130540788</v>
       </c>
       <c r="G11">
-        <v>0.977879193015598</v>
+        <v>0.7786392064522705</v>
       </c>
       <c r="H11">
-        <v>0.9847095705996862</v>
+        <v>0.5795334215646574</v>
       </c>
       <c r="I11">
-        <v>0.9966132708285818</v>
+        <v>1.366289627059631</v>
       </c>
       <c r="J11">
-        <v>0.9854855150321993</v>
+        <v>0.9615484995348205</v>
       </c>
       <c r="K11">
-        <v>1.102387669969622</v>
+        <v>0.9615484995348205</v>
       </c>
       <c r="L11">
-        <v>0.9848555503704263</v>
+        <v>0.7064863130540788</v>
       </c>
       <c r="M11">
-        <v>0.9851705327013127</v>
+        <v>1.487497980481365</v>
       </c>
       <c r="N11">
-        <v>0.9851705327013127</v>
+        <v>1.487497980481365</v>
       </c>
       <c r="O11">
-        <v>0.9850168786674373</v>
+        <v>1.447095196007454</v>
       </c>
       <c r="P11">
-        <v>1.024242911790749</v>
+        <v>1.312181486832517</v>
       </c>
       <c r="Q11">
-        <v>1.024242911790749</v>
+        <v>1.312181486832517</v>
       </c>
       <c r="R11">
-        <v>1.043779101335467</v>
+        <v>1.224523240008093</v>
       </c>
       <c r="S11">
-        <v>1.043779101335467</v>
+        <v>1.224523240008093</v>
       </c>
       <c r="T11">
-        <v>1.005321794969352</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>1.110167785929018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.4737304055118673</v>
+        <v>1.984341958860695</v>
       </c>
       <c r="D12">
-        <v>0.3218313991703848</v>
+        <v>0.8928287057180828</v>
       </c>
       <c r="E12">
-        <v>1.351068282767972</v>
+        <v>0.8928287057180828</v>
       </c>
       <c r="F12">
-        <v>0.4737304055118673</v>
+        <v>0.7956509490947359</v>
       </c>
       <c r="G12">
-        <v>0.6839215333004303</v>
+        <v>0.9585263048863151</v>
       </c>
       <c r="H12">
-        <v>1.020460596570308</v>
+        <v>0.7811649473794139</v>
       </c>
       <c r="I12">
-        <v>1.147339775608284</v>
+        <v>0.8531727796771271</v>
       </c>
       <c r="J12">
-        <v>0.3218313991703848</v>
+        <v>1.984341958860695</v>
       </c>
       <c r="K12">
-        <v>0.4737304055118673</v>
+        <v>1.984341958860695</v>
       </c>
       <c r="L12">
-        <v>1.351068282767972</v>
+        <v>0.7956509490947359</v>
       </c>
       <c r="M12">
-        <v>0.8364498409691785</v>
+        <v>0.8442398274064093</v>
       </c>
       <c r="N12">
-        <v>0.8364498409691785</v>
+        <v>0.8442398274064093</v>
       </c>
       <c r="O12">
-        <v>0.8977867595028881</v>
+        <v>0.8472174781633153</v>
       </c>
       <c r="P12">
-        <v>0.7155433624834081</v>
+        <v>1.224273871224504</v>
       </c>
       <c r="Q12">
-        <v>0.7155433624834081</v>
+        <v>1.224273871224504</v>
       </c>
       <c r="R12">
-        <v>0.655090123240523</v>
+        <v>1.414290893133552</v>
       </c>
       <c r="S12">
-        <v>0.655090123240523</v>
+        <v>1.414290893133552</v>
       </c>
       <c r="T12">
-        <v>0.8330586654882076</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>1.044280940936061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.552298692499379</v>
+        <v>0.9515763001267742</v>
       </c>
       <c r="D13">
-        <v>1.713282696435611</v>
+        <v>1.266004170170627</v>
       </c>
       <c r="E13">
-        <v>0.4915436637177764</v>
+        <v>1.266004170170627</v>
       </c>
       <c r="F13">
-        <v>1.552298692499379</v>
+        <v>0.9572162739499981</v>
       </c>
       <c r="G13">
-        <v>1.574702724284799</v>
+        <v>0.9603765332406858</v>
       </c>
       <c r="H13">
-        <v>1.034762081401286</v>
+        <v>1.001262814966343</v>
       </c>
       <c r="I13">
-        <v>0.7928834745362943</v>
+        <v>1.062742537287254</v>
       </c>
       <c r="J13">
-        <v>1.713282696435611</v>
+        <v>0.9515763001267742</v>
       </c>
       <c r="K13">
-        <v>1.552298692499379</v>
+        <v>0.9515763001267742</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177764</v>
+        <v>0.9572162739499981</v>
       </c>
       <c r="M13">
-        <v>1.102413180076694</v>
+        <v>1.111610222060313</v>
       </c>
       <c r="N13">
-        <v>1.102413180076694</v>
+        <v>1.111610222060313</v>
       </c>
       <c r="O13">
-        <v>1.079862813851558</v>
+        <v>1.095320993802626</v>
       </c>
       <c r="P13">
-        <v>1.252375017550922</v>
+        <v>1.0582655814158</v>
       </c>
       <c r="Q13">
-        <v>1.252375017550922</v>
+        <v>1.0582655814158</v>
       </c>
       <c r="R13">
-        <v>1.327355936288036</v>
+        <v>1.031593261093543</v>
       </c>
       <c r="S13">
-        <v>1.327355936288036</v>
+        <v>1.031593261093543</v>
       </c>
       <c r="T13">
-        <v>1.193245555479191</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.03319643829028</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.1130292872609319</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="D14">
-        <v>-3.79484088523818E-05</v>
+        <v>0.0006486686500000011</v>
       </c>
       <c r="E14">
-        <v>1.832888417990372</v>
+        <v>0.0006486686500000011</v>
       </c>
       <c r="F14">
-        <v>0.1130292872609319</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="G14">
-        <v>4.102775723979868</v>
+        <v>0.6037766099999995</v>
       </c>
       <c r="H14">
-        <v>0.005498949930406618</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="I14">
-        <v>1.250686388972495</v>
+        <v>0.05715137000000005</v>
       </c>
       <c r="J14">
-        <v>-3.79484088523818E-05</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="K14">
-        <v>0.1130292872609319</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="L14">
-        <v>1.832888417990372</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="M14">
-        <v>0.9164252347907598</v>
+        <v>0.01375457482499999</v>
       </c>
       <c r="N14">
-        <v>0.9164252347907598</v>
+        <v>0.01375457482499999</v>
       </c>
       <c r="O14">
-        <v>0.6127831398373087</v>
+        <v>0.02822017321666668</v>
       </c>
       <c r="P14">
-        <v>0.6486265856141505</v>
+        <v>2.560703416549999</v>
       </c>
       <c r="Q14">
-        <v>0.6486265856141505</v>
+        <v>2.560703416549999</v>
       </c>
       <c r="R14">
-        <v>0.5147272610258459</v>
+        <v>3.834177837412498</v>
       </c>
       <c r="S14">
-        <v>0.5147272610258459</v>
+        <v>3.834177837412498</v>
       </c>
       <c r="T14">
-        <v>1.217473469954204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>1.391753247524999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.486216094593838</v>
+        <v>7.6546011</v>
       </c>
       <c r="D15">
-        <v>0.01444413321375921</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="E15">
-        <v>1.369242230548034</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="F15">
-        <v>1.486216094593838</v>
+        <v>0.026860481</v>
       </c>
       <c r="G15">
-        <v>0.1235815129862916</v>
+        <v>0.60377661</v>
       </c>
       <c r="H15">
-        <v>0.3225242475568116</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="I15">
-        <v>1.543102081820894</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="J15">
-        <v>0.01444413321375921</v>
+        <v>7.6546011</v>
       </c>
       <c r="K15">
-        <v>1.486216094593838</v>
+        <v>7.6546011</v>
       </c>
       <c r="L15">
-        <v>1.369242230548034</v>
+        <v>0.026860481</v>
       </c>
       <c r="M15">
-        <v>0.6918431818808968</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N15">
-        <v>0.6918431818808968</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O15">
-        <v>0.568736870439535</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P15">
-        <v>0.9566341527852105</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q15">
-        <v>0.9566341527852105</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R15">
-        <v>1.089029638237367</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S15">
-        <v>1.089029638237367</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T15">
-        <v>0.8098517167866048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.391753247525</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000556684875521</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="D16">
-        <v>1.009564042616003</v>
+        <v>15.308083</v>
       </c>
       <c r="E16">
-        <v>0.9969080466385997</v>
+        <v>15.308083</v>
       </c>
       <c r="F16">
-        <v>1.000556684875521</v>
+        <v>0.0040031707</v>
       </c>
       <c r="G16">
-        <v>1.009700728530703</v>
+        <v>0.0023948996</v>
       </c>
       <c r="H16">
-        <v>1.000255705444245</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="I16">
-        <v>0.9983902169510342</v>
+        <v>1.4427831</v>
       </c>
       <c r="J16">
-        <v>1.009564042616003</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K16">
-        <v>1.000556684875521</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L16">
-        <v>0.9969080466385997</v>
+        <v>0.0040031707</v>
       </c>
       <c r="M16">
-        <v>1.003236044627301</v>
+        <v>7.65604308535</v>
       </c>
       <c r="N16">
-        <v>1.003236044627301</v>
+        <v>7.65604308535</v>
       </c>
       <c r="O16">
-        <v>1.002242598232949</v>
+        <v>5.584956423566667</v>
       </c>
       <c r="P16">
-        <v>1.002342924710041</v>
+        <v>5.10424494645</v>
       </c>
       <c r="Q16">
-        <v>1.002342924710041</v>
+        <v>5.10424494645</v>
       </c>
       <c r="R16">
-        <v>1.001896364751411</v>
+        <v>3.828345877</v>
       </c>
       <c r="S16">
-        <v>1.001896364751411</v>
+        <v>3.828345877</v>
       </c>
       <c r="T16">
-        <v>1.002562570842684</v>
+        <v>2.792442859858333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.013015246083423</v>
+        <v>0.022204502</v>
       </c>
       <c r="D17">
-        <v>0.9839310370834983</v>
+        <v>0.02477293</v>
       </c>
       <c r="E17">
-        <v>1.003584299867386</v>
+        <v>0.02477293</v>
       </c>
       <c r="F17">
-        <v>1.013015246083423</v>
+        <v>3.1614894</v>
       </c>
       <c r="G17">
-        <v>0.9810758908467639</v>
+        <v>1.3930041</v>
       </c>
       <c r="H17">
-        <v>0.9988944704466883</v>
+        <v>0.16118667</v>
       </c>
       <c r="I17">
-        <v>1.001758610689244</v>
+        <v>0.35408313</v>
       </c>
       <c r="J17">
-        <v>0.9839310370834983</v>
+        <v>0.022204502</v>
       </c>
       <c r="K17">
-        <v>1.013015246083423</v>
+        <v>0.022204502</v>
       </c>
       <c r="L17">
-        <v>1.003584299867386</v>
+        <v>3.1614894</v>
       </c>
       <c r="M17">
-        <v>0.9937576684754421</v>
+        <v>1.593131165</v>
       </c>
       <c r="N17">
-        <v>0.9937576684754421</v>
+        <v>1.593131165</v>
       </c>
       <c r="O17">
-        <v>0.9954699357991909</v>
+        <v>1.180115153333333</v>
       </c>
       <c r="P17">
-        <v>1.000176861011436</v>
+        <v>1.069488944</v>
       </c>
       <c r="Q17">
-        <v>1.000176861011436</v>
+        <v>1.069488944</v>
       </c>
       <c r="R17">
-        <v>1.003386457279433</v>
+        <v>0.8076678334999999</v>
       </c>
       <c r="S17">
-        <v>1.003386457279433</v>
+        <v>0.8076678334999999</v>
       </c>
       <c r="T17">
-        <v>0.9970432591695005</v>
+        <v>0.8527901219999999</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9960078692838205</v>
+        <v>1.004719418325315</v>
       </c>
       <c r="D18">
-        <v>1.048439747818371</v>
+        <v>1.785510813971918</v>
       </c>
       <c r="E18">
-        <v>0.999255084803218</v>
+        <v>1.785510813971918</v>
       </c>
       <c r="F18">
-        <v>0.9960078692838205</v>
+        <v>1.148779232241096</v>
       </c>
       <c r="G18">
-        <v>1.065582532674874</v>
+        <v>0.8257481789041095</v>
       </c>
       <c r="H18">
-        <v>0.993014734685568</v>
+        <v>2.677672409050685</v>
       </c>
       <c r="I18">
-        <v>0.9917111600417813</v>
+        <v>0.571368602762192</v>
       </c>
       <c r="J18">
-        <v>1.048439747818371</v>
+        <v>1.004719418325315</v>
       </c>
       <c r="K18">
-        <v>0.9960078692838205</v>
+        <v>1.004719418325315</v>
       </c>
       <c r="L18">
-        <v>0.999255084803218</v>
+        <v>1.148779232241096</v>
       </c>
       <c r="M18">
-        <v>1.023847416310794</v>
+        <v>1.467145023106507</v>
       </c>
       <c r="N18">
-        <v>1.023847416310794</v>
+        <v>1.467145023106507</v>
       </c>
       <c r="O18">
-        <v>1.013569855769052</v>
+        <v>1.168552882991735</v>
       </c>
       <c r="P18">
-        <v>1.014567567301803</v>
+        <v>1.31300315484611</v>
       </c>
       <c r="Q18">
-        <v>1.014567567301803</v>
+        <v>1.31300315484611</v>
       </c>
       <c r="R18">
-        <v>1.009927642797307</v>
+        <v>1.235932220715911</v>
       </c>
       <c r="S18">
-        <v>1.009927642797307</v>
+        <v>1.235932220715911</v>
       </c>
       <c r="T18">
-        <v>1.015668521551272</v>
+        <v>1.335633109209219</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9441300260527323</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="D19">
-        <v>1.161619258063608</v>
+        <v>2.117882948532105</v>
       </c>
       <c r="E19">
-        <v>0.9659952262325709</v>
+        <v>2.117882948532105</v>
       </c>
       <c r="F19">
-        <v>0.9441300260527323</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="G19">
-        <v>1.226324100103181</v>
+        <v>0.8011603088052631</v>
       </c>
       <c r="H19">
-        <v>0.9886503892955336</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="I19">
-        <v>0.9767460430876002</v>
+        <v>0.5875345469944737</v>
       </c>
       <c r="J19">
-        <v>1.161619258063608</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="K19">
-        <v>0.9441300260527323</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="L19">
-        <v>0.9659952262325709</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="M19">
-        <v>1.063807242148089</v>
+        <v>1.610887203055526</v>
       </c>
       <c r="N19">
-        <v>1.063807242148089</v>
+        <v>1.610887203055526</v>
       </c>
       <c r="O19">
-        <v>1.038754957863904</v>
+        <v>1.269769651035175</v>
       </c>
       <c r="P19">
-        <v>1.02391483678297</v>
+        <v>1.429189784383737</v>
       </c>
       <c r="Q19">
-        <v>1.02391483678297</v>
+        <v>1.429189784383737</v>
       </c>
       <c r="R19">
-        <v>1.003968634100411</v>
+        <v>1.338341075047842</v>
       </c>
       <c r="S19">
-        <v>1.003968634100411</v>
+        <v>1.338341075047842</v>
       </c>
       <c r="T19">
-        <v>1.043910840472538</v>
+        <v>1.374708630782614</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>2.117895312562947</v>
+      </c>
+      <c r="D20">
+        <v>3.4304245191</v>
+      </c>
+      <c r="E20">
+        <v>3.4304245191</v>
+      </c>
+      <c r="F20">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="G20">
+        <v>0.3592011805052631</v>
+      </c>
+      <c r="H20">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="I20">
+        <v>1.881666172631579</v>
+      </c>
+      <c r="J20">
+        <v>2.117895312562947</v>
+      </c>
+      <c r="K20">
+        <v>2.117895312562947</v>
+      </c>
+      <c r="L20">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="M20">
+        <v>1.746360228144737</v>
+      </c>
+      <c r="N20">
+        <v>1.746360228144737</v>
+      </c>
+      <c r="O20">
+        <v>1.791462209640351</v>
+      </c>
+      <c r="P20">
+        <v>1.87020525628414</v>
+      </c>
+      <c r="Q20">
+        <v>1.87020525628414</v>
+      </c>
+      <c r="R20">
+        <v>1.932127770353842</v>
+      </c>
+      <c r="S20">
+        <v>1.932127770353842</v>
+      </c>
+      <c r="T20">
+        <v>1.308853624881719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="D21">
+        <v>-3.794840885238125E-05</v>
+      </c>
+      <c r="E21">
+        <v>-3.794840885238125E-05</v>
+      </c>
+      <c r="F21">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="G21">
+        <v>1.250686388972495</v>
+      </c>
+      <c r="H21">
+        <v>4.102775723979871</v>
+      </c>
+      <c r="I21">
+        <v>0.005498949930406612</v>
+      </c>
+      <c r="J21">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="K21">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="L21">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="M21">
+        <v>0.9164252347907598</v>
+      </c>
+      <c r="N21">
+        <v>0.9164252347907598</v>
+      </c>
+      <c r="O21">
+        <v>0.6127831398373087</v>
+      </c>
+      <c r="P21">
+        <v>0.6486265856141504</v>
+      </c>
+      <c r="Q21">
+        <v>0.6486265856141504</v>
+      </c>
+      <c r="R21">
+        <v>0.5147272610258458</v>
+      </c>
+      <c r="S21">
+        <v>0.5147272610258458</v>
+      </c>
+      <c r="T21">
+        <v>1.217473469954204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="D22">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="E22">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="F22">
+        <v>1.369242230548034</v>
+      </c>
+      <c r="G22">
+        <v>1.543102081820894</v>
+      </c>
+      <c r="H22">
+        <v>0.1235815129862916</v>
+      </c>
+      <c r="I22">
+        <v>0.3225242475568116</v>
+      </c>
+      <c r="J22">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="K22">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="L22">
+        <v>1.369242230548034</v>
+      </c>
+      <c r="M22">
+        <v>0.6918431818808968</v>
+      </c>
+      <c r="N22">
+        <v>0.6918431818808968</v>
+      </c>
+      <c r="O22">
+        <v>0.568736870439535</v>
+      </c>
+      <c r="P22">
+        <v>0.9566341527852105</v>
+      </c>
+      <c r="Q22">
+        <v>0.9566341527852105</v>
+      </c>
+      <c r="R22">
+        <v>1.089029638237367</v>
+      </c>
+      <c r="S22">
+        <v>1.089029638237367</v>
+      </c>
+      <c r="T22">
+        <v>0.8098517167866048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.4737304055118672</v>
+      </c>
+      <c r="D23">
+        <v>0.3218313991703848</v>
+      </c>
+      <c r="E23">
+        <v>0.3218313991703848</v>
+      </c>
+      <c r="F23">
+        <v>1.351068282767973</v>
+      </c>
+      <c r="G23">
+        <v>1.147339775608284</v>
+      </c>
+      <c r="H23">
+        <v>0.68392153330043</v>
+      </c>
+      <c r="I23">
+        <v>1.020460596570308</v>
+      </c>
+      <c r="J23">
+        <v>0.4737304055118672</v>
+      </c>
+      <c r="K23">
+        <v>0.4737304055118672</v>
+      </c>
+      <c r="L23">
+        <v>1.351068282767973</v>
+      </c>
+      <c r="M23">
+        <v>0.8364498409691786</v>
+      </c>
+      <c r="N23">
+        <v>0.8364498409691786</v>
+      </c>
+      <c r="O23">
+        <v>0.8977867595028882</v>
+      </c>
+      <c r="P23">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="Q23">
+        <v>0.7155433624834081</v>
+      </c>
+      <c r="R23">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="S23">
+        <v>0.6550901232405228</v>
+      </c>
+      <c r="T23">
+        <v>0.8330586654882076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.552298692499379</v>
+      </c>
+      <c r="D24">
+        <v>1.713282696435613</v>
+      </c>
+      <c r="E24">
+        <v>1.713282696435613</v>
+      </c>
+      <c r="F24">
+        <v>0.4915436637177764</v>
+      </c>
+      <c r="G24">
+        <v>0.7928834745362943</v>
+      </c>
+      <c r="H24">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="I24">
+        <v>1.034762081401286</v>
+      </c>
+      <c r="J24">
+        <v>1.552298692499379</v>
+      </c>
+      <c r="K24">
+        <v>1.552298692499379</v>
+      </c>
+      <c r="L24">
+        <v>0.4915436637177764</v>
+      </c>
+      <c r="M24">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="N24">
+        <v>1.102413180076695</v>
+      </c>
+      <c r="O24">
+        <v>1.079862813851558</v>
+      </c>
+      <c r="P24">
+        <v>1.252375017550923</v>
+      </c>
+      <c r="Q24">
+        <v>1.252375017550923</v>
+      </c>
+      <c r="R24">
+        <v>1.327355936288037</v>
+      </c>
+      <c r="S24">
+        <v>1.327355936288037</v>
+      </c>
+      <c r="T24">
+        <v>1.193245555479191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.0448756062245436</v>
+      </c>
+      <c r="D25">
+        <v>4.958971238726514</v>
+      </c>
+      <c r="E25">
+        <v>4.958971238726514</v>
+      </c>
+      <c r="F25">
+        <v>0.2097497719445351</v>
+      </c>
+      <c r="G25">
+        <v>0.1665402680163802</v>
+      </c>
+      <c r="H25">
+        <v>0.0005971704771489938</v>
+      </c>
+      <c r="I25">
+        <v>2.452011665041457</v>
+      </c>
+      <c r="J25">
+        <v>0.0448756062245436</v>
+      </c>
+      <c r="K25">
+        <v>0.0448756062245436</v>
+      </c>
+      <c r="L25">
+        <v>0.2097497719445351</v>
+      </c>
+      <c r="M25">
+        <v>2.584360505335525</v>
+      </c>
+      <c r="N25">
+        <v>2.584360505335525</v>
+      </c>
+      <c r="O25">
+        <v>2.540244225237502</v>
+      </c>
+      <c r="P25">
+        <v>1.737865538965198</v>
+      </c>
+      <c r="Q25">
+        <v>1.737865538965198</v>
+      </c>
+      <c r="R25">
+        <v>1.314618055780034</v>
+      </c>
+      <c r="S25">
+        <v>1.314618055780034</v>
+      </c>
+      <c r="T25">
+        <v>1.305457620071763</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.632480598682546</v>
+      </c>
+      <c r="D26">
+        <v>0.6311671708583741</v>
+      </c>
+      <c r="E26">
+        <v>0.6311671708583741</v>
+      </c>
+      <c r="F26">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="G26">
+        <v>0.9108226420960558</v>
+      </c>
+      <c r="H26">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="I26">
+        <v>1.558998625137756</v>
+      </c>
+      <c r="J26">
+        <v>0.632480598682546</v>
+      </c>
+      <c r="K26">
+        <v>0.632480598682546</v>
+      </c>
+      <c r="L26">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="M26">
+        <v>0.8360598126674047</v>
+      </c>
+      <c r="N26">
+        <v>0.8360598126674047</v>
+      </c>
+      <c r="O26">
+        <v>1.077039416824189</v>
+      </c>
+      <c r="P26">
+        <v>0.7682000746724519</v>
+      </c>
+      <c r="Q26">
+        <v>0.7682000746724519</v>
+      </c>
+      <c r="R26">
+        <v>0.7342702056749754</v>
+      </c>
+      <c r="S26">
+        <v>0.7342702056749754</v>
+      </c>
+      <c r="T26">
+        <v>0.8087205061412738</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="D27">
+        <v>0.5824804053476068</v>
+      </c>
+      <c r="E27">
+        <v>0.5824804053476068</v>
+      </c>
+      <c r="F27">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="G27">
+        <v>0.9209271372953872</v>
+      </c>
+      <c r="H27">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="I27">
+        <v>1.049442799052001</v>
+      </c>
+      <c r="J27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="K27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="L27">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="M27">
+        <v>0.8302607267777624</v>
+      </c>
+      <c r="N27">
+        <v>0.8302607267777624</v>
+      </c>
+      <c r="O27">
+        <v>0.9033214175358421</v>
+      </c>
+      <c r="P27">
+        <v>0.8995971605523159</v>
+      </c>
+      <c r="Q27">
+        <v>0.899597160552316</v>
+      </c>
+      <c r="R27">
+        <v>0.9342653774395927</v>
+      </c>
+      <c r="S27">
+        <v>0.9342653774395927</v>
+      </c>
+      <c r="T27">
+        <v>0.9912892068107825</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.7811523388825944</v>
+      </c>
+      <c r="D28">
+        <v>1.326353524349743</v>
+      </c>
+      <c r="E28">
+        <v>1.326353524349743</v>
+      </c>
+      <c r="F28">
+        <v>1.128384283031471</v>
+      </c>
+      <c r="G28">
+        <v>0.7860314906808465</v>
+      </c>
+      <c r="H28">
+        <v>1.451124243170215</v>
+      </c>
+      <c r="I28">
+        <v>1.433262931069014</v>
+      </c>
+      <c r="J28">
+        <v>0.7811523388825944</v>
+      </c>
+      <c r="K28">
+        <v>0.7811523388825944</v>
+      </c>
+      <c r="L28">
+        <v>1.128384283031471</v>
+      </c>
+      <c r="M28">
+        <v>1.227368903690607</v>
+      </c>
+      <c r="N28">
+        <v>1.227368903690607</v>
+      </c>
+      <c r="O28">
+        <v>1.296000246150076</v>
+      </c>
+      <c r="P28">
+        <v>1.078630048754603</v>
+      </c>
+      <c r="Q28">
+        <v>1.078630048754603</v>
+      </c>
+      <c r="R28">
+        <v>1.004260621286601</v>
+      </c>
+      <c r="S28">
+        <v>1.004260621286601</v>
+      </c>
+      <c r="T28">
+        <v>1.151051468530647</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.09224203304639991</v>
+      </c>
+      <c r="D29">
+        <v>0.9466846488932475</v>
+      </c>
+      <c r="E29">
+        <v>0.9466846488932475</v>
+      </c>
+      <c r="F29">
+        <v>1.919536912415851</v>
+      </c>
+      <c r="G29">
+        <v>0.9680220899773099</v>
+      </c>
+      <c r="H29">
+        <v>0.6857840736688057</v>
+      </c>
+      <c r="I29">
+        <v>1.60186731408835</v>
+      </c>
+      <c r="J29">
+        <v>0.09224203304639991</v>
+      </c>
+      <c r="K29">
+        <v>0.09224203304639991</v>
+      </c>
+      <c r="L29">
+        <v>1.919536912415851</v>
+      </c>
+      <c r="M29">
+        <v>1.43311078065455</v>
+      </c>
+      <c r="N29">
+        <v>1.43311078065455</v>
+      </c>
+      <c r="O29">
+        <v>1.489362958465817</v>
+      </c>
+      <c r="P29">
+        <v>0.9861545314518331</v>
+      </c>
+      <c r="Q29">
+        <v>0.9861545314518331</v>
+      </c>
+      <c r="R29">
+        <v>0.7626764068504748</v>
+      </c>
+      <c r="S29">
+        <v>0.7626764068504748</v>
+      </c>
+      <c r="T29">
+        <v>1.035689512014994</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/RGossF-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8355971789942269</v>
+        <v>1.504623523186097</v>
       </c>
       <c r="D4">
-        <v>2.082275780922206</v>
+        <v>0.8367063306086788</v>
       </c>
       <c r="E4">
-        <v>2.082275780922206</v>
+        <v>0.8367063306086788</v>
       </c>
       <c r="F4">
-        <v>0.8639189916810814</v>
+        <v>0.9145542588308017</v>
       </c>
       <c r="G4">
-        <v>0.849326470016856</v>
+        <v>1.002269474040153</v>
       </c>
       <c r="H4">
-        <v>0.8419087286199878</v>
+        <v>0.9053427232817619</v>
       </c>
       <c r="I4">
-        <v>1.214864827568326</v>
+        <v>0.8889496893244269</v>
       </c>
       <c r="J4">
-        <v>0.8355971789942269</v>
+        <v>1.504623523186097</v>
       </c>
       <c r="K4">
-        <v>0.8355971789942269</v>
+        <v>1.504623523186097</v>
       </c>
       <c r="L4">
-        <v>0.8639189916810814</v>
+        <v>0.9145542588308017</v>
       </c>
       <c r="M4">
-        <v>1.473097386301644</v>
+        <v>0.8756302947197403</v>
       </c>
       <c r="N4">
-        <v>1.473097386301644</v>
+        <v>0.8756302947197403</v>
       </c>
       <c r="O4">
-        <v>1.387019866723871</v>
+        <v>0.8800700929213026</v>
       </c>
       <c r="P4">
-        <v>1.260597317199171</v>
+        <v>1.085294704208526</v>
       </c>
       <c r="Q4">
-        <v>1.260597317199172</v>
+        <v>1.085294704208526</v>
       </c>
       <c r="R4">
-        <v>1.154347282647935</v>
+        <v>1.190126908952919</v>
       </c>
       <c r="S4">
-        <v>1.154347282647935</v>
+        <v>1.190126908952919</v>
       </c>
       <c r="T4">
-        <v>1.114648662967114</v>
+        <v>1.008740999878653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.666392799660074</v>
+        <v>1.570478024798651</v>
       </c>
       <c r="D5">
-        <v>0.867838006209775</v>
+        <v>3.792226568893989</v>
       </c>
       <c r="E5">
-        <v>0.867838006209775</v>
+        <v>3.792226568893989</v>
       </c>
       <c r="F5">
-        <v>0.8829594171521603</v>
+        <v>0.06554019872590683</v>
       </c>
       <c r="G5">
-        <v>0.9810661891932296</v>
+        <v>0.3317472814760187</v>
       </c>
       <c r="H5">
-        <v>0.9054933994113786</v>
+        <v>0.001087735600771453</v>
       </c>
       <c r="I5">
-        <v>0.871280693400832</v>
+        <v>2.070066004530333</v>
       </c>
       <c r="J5">
-        <v>1.666392799660074</v>
+        <v>1.570478024798651</v>
       </c>
       <c r="K5">
-        <v>1.666392799660074</v>
+        <v>1.570478024798651</v>
       </c>
       <c r="L5">
-        <v>0.8829594171521603</v>
+        <v>0.06554019872590683</v>
       </c>
       <c r="M5">
-        <v>0.8753987116809676</v>
+        <v>1.928883383809948</v>
       </c>
       <c r="N5">
-        <v>0.8753987116809676</v>
+        <v>1.928883383809948</v>
       </c>
       <c r="O5">
-        <v>0.8740260389209223</v>
+        <v>1.97594425738341</v>
       </c>
       <c r="P5">
-        <v>1.139063407674003</v>
+        <v>1.809414930806182</v>
       </c>
       <c r="Q5">
-        <v>1.139063407674003</v>
+        <v>1.809414930806182</v>
       </c>
       <c r="R5">
-        <v>1.270895755670521</v>
+        <v>1.749680704304299</v>
       </c>
       <c r="S5">
-        <v>1.270895755670521</v>
+        <v>1.749680704304299</v>
       </c>
       <c r="T5">
-        <v>1.029171750837908</v>
+        <v>1.305190969004278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>4.582116472685923</v>
+        <v>0.8355971789942269</v>
       </c>
       <c r="D6">
-        <v>0.4147226635749104</v>
+        <v>2.082275780922206</v>
       </c>
       <c r="E6">
-        <v>0.4147226635749104</v>
+        <v>2.082275780922206</v>
       </c>
       <c r="F6">
-        <v>0.4692235514829142</v>
+        <v>0.8639189916810814</v>
       </c>
       <c r="G6">
-        <v>0.8044020482867532</v>
+        <v>0.849326470016856</v>
       </c>
       <c r="H6">
-        <v>0.450935656972601</v>
+        <v>0.8419087286199878</v>
       </c>
       <c r="I6">
-        <v>0.47258068407758</v>
+        <v>1.214864827568326</v>
       </c>
       <c r="J6">
-        <v>4.582116472685923</v>
+        <v>0.8355971789942269</v>
       </c>
       <c r="K6">
-        <v>4.582116472685923</v>
+        <v>0.8355971789942269</v>
       </c>
       <c r="L6">
-        <v>0.4692235514829142</v>
+        <v>0.8639189916810814</v>
       </c>
       <c r="M6">
-        <v>0.4419731075289123</v>
+        <v>1.473097386301644</v>
       </c>
       <c r="N6">
-        <v>0.4419731075289123</v>
+        <v>1.473097386301644</v>
       </c>
       <c r="O6">
-        <v>0.4521756330451348</v>
+        <v>1.387019866723871</v>
       </c>
       <c r="P6">
-        <v>1.822020895914583</v>
+        <v>1.260597317199171</v>
       </c>
       <c r="Q6">
-        <v>1.822020895914582</v>
+        <v>1.260597317199172</v>
       </c>
       <c r="R6">
-        <v>2.512044790107418</v>
+        <v>1.154347282647935</v>
       </c>
       <c r="S6">
-        <v>2.512044790107418</v>
+        <v>1.154347282647935</v>
       </c>
       <c r="T6">
-        <v>1.198996846180113</v>
+        <v>1.114648662967114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9972530763136086</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="D7">
-        <v>1.038525079572818</v>
+        <v>0.867838006209775</v>
       </c>
       <c r="E7">
-        <v>1.038525079572818</v>
+        <v>0.867838006209775</v>
       </c>
       <c r="F7">
-        <v>1.001998159897869</v>
+        <v>0.8829594171521603</v>
       </c>
       <c r="G7">
-        <v>0.9909840206094394</v>
+        <v>0.9810661891932296</v>
       </c>
       <c r="H7">
-        <v>1.065923499177135</v>
+        <v>0.9054933994113786</v>
       </c>
       <c r="I7">
-        <v>0.9874319103075205</v>
+        <v>0.871280693400832</v>
       </c>
       <c r="J7">
-        <v>0.9972530763136086</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="K7">
-        <v>0.9972530763136086</v>
+        <v>1.666392799660074</v>
       </c>
       <c r="L7">
-        <v>1.001998159897869</v>
+        <v>0.8829594171521603</v>
       </c>
       <c r="M7">
-        <v>1.020261619735344</v>
+        <v>0.8753987116809676</v>
       </c>
       <c r="N7">
-        <v>1.020261619735344</v>
+        <v>0.8753987116809676</v>
       </c>
       <c r="O7">
-        <v>1.009318383259403</v>
+        <v>0.8740260389209223</v>
       </c>
       <c r="P7">
-        <v>1.012592105261432</v>
+        <v>1.139063407674003</v>
       </c>
       <c r="Q7">
-        <v>1.012592105261432</v>
+        <v>1.139063407674003</v>
       </c>
       <c r="R7">
-        <v>1.008757348024476</v>
+        <v>1.270895755670521</v>
       </c>
       <c r="S7">
-        <v>1.008757348024476</v>
+        <v>1.270895755670521</v>
       </c>
       <c r="T7">
-        <v>1.013685957646399</v>
+        <v>1.029171750837908</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.013015246083423</v>
+        <v>4.582116472685923</v>
       </c>
       <c r="D8">
-        <v>0.9839310370834984</v>
+        <v>0.4147226635749104</v>
       </c>
       <c r="E8">
-        <v>0.9839310370834984</v>
+        <v>0.4147226635749104</v>
       </c>
       <c r="F8">
-        <v>1.003584299867386</v>
+        <v>0.4692235514829142</v>
       </c>
       <c r="G8">
-        <v>1.001758610689244</v>
+        <v>0.8044020482867532</v>
       </c>
       <c r="H8">
-        <v>0.9810758908467656</v>
+        <v>0.450935656972601</v>
       </c>
       <c r="I8">
-        <v>0.9988944704466881</v>
+        <v>0.47258068407758</v>
       </c>
       <c r="J8">
-        <v>1.013015246083423</v>
+        <v>4.582116472685923</v>
       </c>
       <c r="K8">
-        <v>1.013015246083423</v>
+        <v>4.582116472685923</v>
       </c>
       <c r="L8">
-        <v>1.003584299867386</v>
+        <v>0.4692235514829142</v>
       </c>
       <c r="M8">
-        <v>0.993757668475442</v>
+        <v>0.4419731075289123</v>
       </c>
       <c r="N8">
-        <v>0.993757668475442</v>
+        <v>0.4419731075289123</v>
       </c>
       <c r="O8">
-        <v>0.9954699357991906</v>
+        <v>0.4521756330451348</v>
       </c>
       <c r="P8">
-        <v>1.000176861011436</v>
+        <v>1.822020895914583</v>
       </c>
       <c r="Q8">
-        <v>1.000176861011436</v>
+        <v>1.822020895914582</v>
       </c>
       <c r="R8">
-        <v>1.003386457279433</v>
+        <v>2.512044790107418</v>
       </c>
       <c r="S8">
-        <v>1.003386457279433</v>
+        <v>2.512044790107418</v>
       </c>
       <c r="T8">
-        <v>0.997043259169501</v>
+        <v>1.198996846180113</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.007493739077857</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="D9">
-        <v>1.064957821822117</v>
+        <v>1.038525079572818</v>
       </c>
       <c r="E9">
-        <v>1.064957821822117</v>
+        <v>1.038525079572818</v>
       </c>
       <c r="F9">
-        <v>1.012095991249685</v>
+        <v>1.001998159897869</v>
       </c>
       <c r="G9">
-        <v>0.9856285503242744</v>
+        <v>0.9909840206094394</v>
       </c>
       <c r="H9">
-        <v>1.137272415456615</v>
+        <v>1.065923499177135</v>
       </c>
       <c r="I9">
-        <v>0.9620791790455339</v>
+        <v>0.9874319103075205</v>
       </c>
       <c r="J9">
-        <v>1.007493739077857</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="K9">
-        <v>1.007493739077857</v>
+        <v>0.9972530763136086</v>
       </c>
       <c r="L9">
-        <v>1.012095991249685</v>
+        <v>1.001998159897869</v>
       </c>
       <c r="M9">
-        <v>1.038526906535901</v>
+        <v>1.020261619735344</v>
       </c>
       <c r="N9">
-        <v>1.038526906535901</v>
+        <v>1.020261619735344</v>
       </c>
       <c r="O9">
-        <v>1.013044330705778</v>
+        <v>1.009318383259403</v>
       </c>
       <c r="P9">
-        <v>1.02818251738322</v>
+        <v>1.012592105261432</v>
       </c>
       <c r="Q9">
-        <v>1.028182517383219</v>
+        <v>1.012592105261432</v>
       </c>
       <c r="R9">
-        <v>1.023010322806879</v>
+        <v>1.008757348024476</v>
       </c>
       <c r="S9">
-        <v>1.023010322806879</v>
+        <v>1.008757348024476</v>
       </c>
       <c r="T9">
-        <v>1.02825461616268</v>
+        <v>1.013685957646399</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>4.699170454118732</v>
+        <v>1.013015246083423</v>
       </c>
       <c r="D10">
-        <v>0.4440216529142558</v>
+        <v>0.9839310370834984</v>
       </c>
       <c r="E10">
-        <v>0.4440216529142558</v>
+        <v>0.9839310370834984</v>
       </c>
       <c r="F10">
-        <v>0.4344632779136979</v>
+        <v>1.003584299867386</v>
       </c>
       <c r="G10">
-        <v>0.794726067537168</v>
+        <v>1.001758610689244</v>
       </c>
       <c r="H10">
-        <v>0.4324149958683023</v>
+        <v>0.9810758908467656</v>
       </c>
       <c r="I10">
-        <v>0.4599032230569868</v>
+        <v>0.9988944704466881</v>
       </c>
       <c r="J10">
-        <v>4.699170454118732</v>
+        <v>1.013015246083423</v>
       </c>
       <c r="K10">
-        <v>4.699170454118732</v>
+        <v>1.013015246083423</v>
       </c>
       <c r="L10">
-        <v>0.4344632779136979</v>
+        <v>1.003584299867386</v>
       </c>
       <c r="M10">
-        <v>0.4392424654139768</v>
+        <v>0.993757668475442</v>
       </c>
       <c r="N10">
-        <v>0.4392424654139768</v>
+        <v>0.993757668475442</v>
       </c>
       <c r="O10">
-        <v>0.4461293846283135</v>
+        <v>0.9954699357991906</v>
       </c>
       <c r="P10">
-        <v>1.859218461648895</v>
+        <v>1.000176861011436</v>
       </c>
       <c r="Q10">
-        <v>1.859218461648895</v>
+        <v>1.000176861011436</v>
       </c>
       <c r="R10">
-        <v>2.569206459766354</v>
+        <v>1.003386457279433</v>
       </c>
       <c r="S10">
-        <v>2.569206459766354</v>
+        <v>1.003386457279433</v>
       </c>
       <c r="T10">
-        <v>1.21078327856819</v>
+        <v>0.997043259169501</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9615484995348205</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="D11">
-        <v>2.268509647908652</v>
+        <v>1.064957821822117</v>
       </c>
       <c r="E11">
-        <v>2.268509647908652</v>
+        <v>1.064957821822117</v>
       </c>
       <c r="F11">
-        <v>0.7064863130540788</v>
+        <v>1.012095991249685</v>
       </c>
       <c r="G11">
-        <v>0.7786392064522705</v>
+        <v>0.9856285503242744</v>
       </c>
       <c r="H11">
-        <v>0.5795334215646574</v>
+        <v>1.137272415456615</v>
       </c>
       <c r="I11">
-        <v>1.366289627059631</v>
+        <v>0.9620791790455339</v>
       </c>
       <c r="J11">
-        <v>0.9615484995348205</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="K11">
-        <v>0.9615484995348205</v>
+        <v>1.007493739077857</v>
       </c>
       <c r="L11">
-        <v>0.7064863130540788</v>
+        <v>1.012095991249685</v>
       </c>
       <c r="M11">
-        <v>1.487497980481365</v>
+        <v>1.038526906535901</v>
       </c>
       <c r="N11">
-        <v>1.487497980481365</v>
+        <v>1.038526906535901</v>
       </c>
       <c r="O11">
-        <v>1.447095196007454</v>
+        <v>1.013044330705778</v>
       </c>
       <c r="P11">
-        <v>1.312181486832517</v>
+        <v>1.02818251738322</v>
       </c>
       <c r="Q11">
-        <v>1.312181486832517</v>
+        <v>1.028182517383219</v>
       </c>
       <c r="R11">
-        <v>1.224523240008093</v>
+        <v>1.023010322806879</v>
       </c>
       <c r="S11">
-        <v>1.224523240008093</v>
+        <v>1.023010322806879</v>
       </c>
       <c r="T11">
-        <v>1.110167785929018</v>
+        <v>1.02825461616268</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.984341958860695</v>
+        <v>4.699170454118732</v>
       </c>
       <c r="D12">
-        <v>0.8928287057180828</v>
+        <v>0.4440216529142558</v>
       </c>
       <c r="E12">
-        <v>0.8928287057180828</v>
+        <v>0.4440216529142558</v>
       </c>
       <c r="F12">
-        <v>0.7956509490947359</v>
+        <v>0.4344632779136979</v>
       </c>
       <c r="G12">
-        <v>0.9585263048863151</v>
+        <v>0.794726067537168</v>
       </c>
       <c r="H12">
-        <v>0.7811649473794139</v>
+        <v>0.4324149958683023</v>
       </c>
       <c r="I12">
-        <v>0.8531727796771271</v>
+        <v>0.4599032230569868</v>
       </c>
       <c r="J12">
-        <v>1.984341958860695</v>
+        <v>4.699170454118732</v>
       </c>
       <c r="K12">
-        <v>1.984341958860695</v>
+        <v>4.699170454118732</v>
       </c>
       <c r="L12">
-        <v>0.7956509490947359</v>
+        <v>0.4344632779136979</v>
       </c>
       <c r="M12">
-        <v>0.8442398274064093</v>
+        <v>0.4392424654139768</v>
       </c>
       <c r="N12">
-        <v>0.8442398274064093</v>
+        <v>0.4392424654139768</v>
       </c>
       <c r="O12">
-        <v>0.8472174781633153</v>
+        <v>0.4461293846283135</v>
       </c>
       <c r="P12">
-        <v>1.224273871224504</v>
+        <v>1.859218461648895</v>
       </c>
       <c r="Q12">
-        <v>1.224273871224504</v>
+        <v>1.859218461648895</v>
       </c>
       <c r="R12">
-        <v>1.414290893133552</v>
+        <v>2.569206459766354</v>
       </c>
       <c r="S12">
-        <v>1.414290893133552</v>
+        <v>2.569206459766354</v>
       </c>
       <c r="T12">
-        <v>1.044280940936061</v>
+        <v>1.21078327856819</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9515763001267742</v>
+        <v>0.9615484995348205</v>
       </c>
       <c r="D13">
-        <v>1.266004170170627</v>
+        <v>2.268509647908652</v>
       </c>
       <c r="E13">
-        <v>1.266004170170627</v>
+        <v>2.268509647908652</v>
       </c>
       <c r="F13">
-        <v>0.9572162739499981</v>
+        <v>0.7064863130540788</v>
       </c>
       <c r="G13">
-        <v>0.9603765332406858</v>
+        <v>0.7786392064522705</v>
       </c>
       <c r="H13">
-        <v>1.001262814966343</v>
+        <v>0.5795334215646574</v>
       </c>
       <c r="I13">
-        <v>1.062742537287254</v>
+        <v>1.366289627059631</v>
       </c>
       <c r="J13">
-        <v>0.9515763001267742</v>
+        <v>0.9615484995348205</v>
       </c>
       <c r="K13">
-        <v>0.9515763001267742</v>
+        <v>0.9615484995348205</v>
       </c>
       <c r="L13">
-        <v>0.9572162739499981</v>
+        <v>0.7064863130540788</v>
       </c>
       <c r="M13">
-        <v>1.111610222060313</v>
+        <v>1.487497980481365</v>
       </c>
       <c r="N13">
-        <v>1.111610222060313</v>
+        <v>1.487497980481365</v>
       </c>
       <c r="O13">
-        <v>1.095320993802626</v>
+        <v>1.447095196007454</v>
       </c>
       <c r="P13">
-        <v>1.0582655814158</v>
+        <v>1.312181486832517</v>
       </c>
       <c r="Q13">
-        <v>1.0582655814158</v>
+        <v>1.312181486832517</v>
       </c>
       <c r="R13">
-        <v>1.031593261093543</v>
+        <v>1.224523240008093</v>
       </c>
       <c r="S13">
-        <v>1.031593261093543</v>
+        <v>1.224523240008093</v>
       </c>
       <c r="T13">
-        <v>1.03319643829028</v>
+        <v>1.110167785929018</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>7.654601099999995</v>
+        <v>1.984341958860695</v>
       </c>
       <c r="D14">
-        <v>0.0006486686500000011</v>
+        <v>0.8928287057180828</v>
       </c>
       <c r="E14">
-        <v>0.0006486686500000011</v>
+        <v>0.8928287057180828</v>
       </c>
       <c r="F14">
-        <v>0.02686048099999998</v>
+        <v>0.7956509490947359</v>
       </c>
       <c r="G14">
-        <v>0.6037766099999995</v>
+        <v>0.9585263048863151</v>
       </c>
       <c r="H14">
-        <v>0.007481255500000003</v>
+        <v>0.7811649473794139</v>
       </c>
       <c r="I14">
-        <v>0.05715137000000005</v>
+        <v>0.8531727796771271</v>
       </c>
       <c r="J14">
-        <v>7.654601099999995</v>
+        <v>1.984341958860695</v>
       </c>
       <c r="K14">
-        <v>7.654601099999995</v>
+        <v>1.984341958860695</v>
       </c>
       <c r="L14">
-        <v>0.02686048099999998</v>
+        <v>0.7956509490947359</v>
       </c>
       <c r="M14">
-        <v>0.01375457482499999</v>
+        <v>0.8442398274064093</v>
       </c>
       <c r="N14">
-        <v>0.01375457482499999</v>
+        <v>0.8442398274064093</v>
       </c>
       <c r="O14">
-        <v>0.02822017321666668</v>
+        <v>0.8472174781633153</v>
       </c>
       <c r="P14">
-        <v>2.560703416549999</v>
+        <v>1.224273871224504</v>
       </c>
       <c r="Q14">
-        <v>2.560703416549999</v>
+        <v>1.224273871224504</v>
       </c>
       <c r="R14">
-        <v>3.834177837412498</v>
+        <v>1.414290893133552</v>
       </c>
       <c r="S14">
-        <v>3.834177837412498</v>
+        <v>1.414290893133552</v>
       </c>
       <c r="T14">
-        <v>1.391753247524999</v>
+        <v>1.044280940936061</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>7.6546011</v>
+        <v>0.9515763001267742</v>
       </c>
       <c r="D15">
-        <v>0.0006486686500000001</v>
+        <v>1.266004170170627</v>
       </c>
       <c r="E15">
-        <v>0.0006486686500000001</v>
+        <v>1.266004170170627</v>
       </c>
       <c r="F15">
-        <v>0.026860481</v>
+        <v>0.9572162739499981</v>
       </c>
       <c r="G15">
-        <v>0.60377661</v>
+        <v>0.9603765332406858</v>
       </c>
       <c r="H15">
-        <v>0.007481255500000001</v>
+        <v>1.001262814966343</v>
       </c>
       <c r="I15">
-        <v>0.05715137000000001</v>
+        <v>1.062742537287254</v>
       </c>
       <c r="J15">
-        <v>7.6546011</v>
+        <v>0.9515763001267742</v>
       </c>
       <c r="K15">
-        <v>7.6546011</v>
+        <v>0.9515763001267742</v>
       </c>
       <c r="L15">
-        <v>0.026860481</v>
+        <v>0.9572162739499981</v>
       </c>
       <c r="M15">
-        <v>0.013754574825</v>
+        <v>1.111610222060313</v>
       </c>
       <c r="N15">
-        <v>0.013754574825</v>
+        <v>1.111610222060313</v>
       </c>
       <c r="O15">
-        <v>0.02822017321666667</v>
+        <v>1.095320993802626</v>
       </c>
       <c r="P15">
-        <v>2.56070341655</v>
+        <v>1.0582655814158</v>
       </c>
       <c r="Q15">
-        <v>2.56070341655</v>
+        <v>1.0582655814158</v>
       </c>
       <c r="R15">
-        <v>3.8341778374125</v>
+        <v>1.031593261093543</v>
       </c>
       <c r="S15">
-        <v>3.8341778374125</v>
+        <v>1.031593261093543</v>
       </c>
       <c r="T15">
-        <v>1.391753247525</v>
+        <v>1.03319643829028</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,58 +1456,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.0006486686500000001</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="D16">
-        <v>15.308083</v>
+        <v>0.0006486686500000011</v>
       </c>
       <c r="E16">
-        <v>15.308083</v>
+        <v>0.0006486686500000011</v>
       </c>
       <c r="F16">
-        <v>0.0040031707</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="G16">
-        <v>0.0023948996</v>
+        <v>0.6037766099999995</v>
       </c>
       <c r="H16">
-        <v>-0.0032556798</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="I16">
-        <v>1.4427831</v>
+        <v>0.05715137000000005</v>
       </c>
       <c r="J16">
-        <v>0.0006486686500000001</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="K16">
-        <v>0.0006486686500000001</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="L16">
-        <v>0.0040031707</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="M16">
-        <v>7.65604308535</v>
+        <v>0.01375457482499999</v>
       </c>
       <c r="N16">
-        <v>7.65604308535</v>
+        <v>0.01375457482499999</v>
       </c>
       <c r="O16">
-        <v>5.584956423566667</v>
+        <v>0.02822017321666668</v>
       </c>
       <c r="P16">
-        <v>5.10424494645</v>
+        <v>2.560703416549999</v>
       </c>
       <c r="Q16">
-        <v>5.10424494645</v>
+        <v>2.560703416549999</v>
       </c>
       <c r="R16">
-        <v>3.828345877</v>
+        <v>3.834177837412498</v>
       </c>
       <c r="S16">
-        <v>3.828345877</v>
+        <v>3.834177837412498</v>
       </c>
       <c r="T16">
-        <v>2.792442859858333</v>
+        <v>1.391753247524999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.022204502</v>
+        <v>7.6546011</v>
       </c>
       <c r="D17">
-        <v>0.02477293</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="E17">
-        <v>0.02477293</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="F17">
-        <v>3.1614894</v>
+        <v>0.026860481</v>
       </c>
       <c r="G17">
-        <v>1.3930041</v>
+        <v>0.60377661</v>
       </c>
       <c r="H17">
-        <v>0.16118667</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="I17">
-        <v>0.35408313</v>
+        <v>0.05715137000000001</v>
       </c>
       <c r="J17">
-        <v>0.022204502</v>
+        <v>7.6546011</v>
       </c>
       <c r="K17">
-        <v>0.022204502</v>
+        <v>7.6546011</v>
       </c>
       <c r="L17">
-        <v>3.1614894</v>
+        <v>0.026860481</v>
       </c>
       <c r="M17">
-        <v>1.593131165</v>
+        <v>0.013754574825</v>
       </c>
       <c r="N17">
-        <v>1.593131165</v>
+        <v>0.013754574825</v>
       </c>
       <c r="O17">
-        <v>1.180115153333333</v>
+        <v>0.02822017321666667</v>
       </c>
       <c r="P17">
-        <v>1.069488944</v>
+        <v>2.56070341655</v>
       </c>
       <c r="Q17">
-        <v>1.069488944</v>
+        <v>2.56070341655</v>
       </c>
       <c r="R17">
-        <v>0.8076678334999999</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="S17">
-        <v>0.8076678334999999</v>
+        <v>3.8341778374125</v>
       </c>
       <c r="T17">
-        <v>0.8527901219999999</v>
+        <v>1.391753247525</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.004719418325315</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="D18">
-        <v>1.785510813971918</v>
+        <v>15.308083</v>
       </c>
       <c r="E18">
-        <v>1.785510813971918</v>
+        <v>15.308083</v>
       </c>
       <c r="F18">
-        <v>1.148779232241096</v>
+        <v>0.0040031707</v>
       </c>
       <c r="G18">
-        <v>0.8257481789041095</v>
+        <v>0.0023948996</v>
       </c>
       <c r="H18">
-        <v>2.677672409050685</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="I18">
-        <v>0.571368602762192</v>
+        <v>1.4427831</v>
       </c>
       <c r="J18">
-        <v>1.004719418325315</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K18">
-        <v>1.004719418325315</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="L18">
-        <v>1.148779232241096</v>
+        <v>0.0040031707</v>
       </c>
       <c r="M18">
-        <v>1.467145023106507</v>
+        <v>7.65604308535</v>
       </c>
       <c r="N18">
-        <v>1.467145023106507</v>
+        <v>7.65604308535</v>
       </c>
       <c r="O18">
-        <v>1.168552882991735</v>
+        <v>5.584956423566667</v>
       </c>
       <c r="P18">
-        <v>1.31300315484611</v>
+        <v>5.10424494645</v>
       </c>
       <c r="Q18">
-        <v>1.31300315484611</v>
+        <v>5.10424494645</v>
       </c>
       <c r="R18">
-        <v>1.235932220715911</v>
+        <v>3.828345877</v>
       </c>
       <c r="S18">
-        <v>1.235932220715911</v>
+        <v>3.828345877</v>
       </c>
       <c r="T18">
-        <v>1.335633109209219</v>
+        <v>2.792442859858333</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.065794947040158</v>
+        <v>0.022204502</v>
       </c>
       <c r="D19">
-        <v>2.117882948532105</v>
+        <v>0.02477293</v>
       </c>
       <c r="E19">
-        <v>2.117882948532105</v>
+        <v>0.02477293</v>
       </c>
       <c r="F19">
-        <v>1.103891457578947</v>
+        <v>3.1614894</v>
       </c>
       <c r="G19">
-        <v>0.8011603088052631</v>
+        <v>1.3930041</v>
       </c>
       <c r="H19">
-        <v>2.571987575744737</v>
+        <v>0.16118667</v>
       </c>
       <c r="I19">
-        <v>0.5875345469944737</v>
+        <v>0.35408313</v>
       </c>
       <c r="J19">
-        <v>1.065794947040158</v>
+        <v>0.022204502</v>
       </c>
       <c r="K19">
-        <v>1.065794947040158</v>
+        <v>0.022204502</v>
       </c>
       <c r="L19">
-        <v>1.103891457578947</v>
+        <v>3.1614894</v>
       </c>
       <c r="M19">
-        <v>1.610887203055526</v>
+        <v>1.593131165</v>
       </c>
       <c r="N19">
-        <v>1.610887203055526</v>
+        <v>1.593131165</v>
       </c>
       <c r="O19">
-        <v>1.269769651035175</v>
+        <v>1.180115153333333</v>
       </c>
       <c r="P19">
-        <v>1.429189784383737</v>
+        <v>1.069488944</v>
       </c>
       <c r="Q19">
-        <v>1.429189784383737</v>
+        <v>1.069488944</v>
       </c>
       <c r="R19">
-        <v>1.338341075047842</v>
+        <v>0.8076678334999999</v>
       </c>
       <c r="S19">
-        <v>1.338341075047842</v>
+        <v>0.8076678334999999</v>
       </c>
       <c r="T19">
-        <v>1.374708630782614</v>
+        <v>0.8527901219999999</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>2.117895312562947</v>
+        <v>1.004719418325315</v>
       </c>
       <c r="D20">
-        <v>3.4304245191</v>
+        <v>1.785510813971918</v>
       </c>
       <c r="E20">
-        <v>3.4304245191</v>
+        <v>1.785510813971918</v>
       </c>
       <c r="F20">
-        <v>0.06229593718947368</v>
+        <v>1.148779232241096</v>
       </c>
       <c r="G20">
-        <v>0.3592011805052631</v>
+        <v>0.8257481789041095</v>
       </c>
       <c r="H20">
-        <v>0.001638627301052632</v>
+        <v>2.677672409050685</v>
       </c>
       <c r="I20">
-        <v>1.881666172631579</v>
+        <v>0.571368602762192</v>
       </c>
       <c r="J20">
-        <v>2.117895312562947</v>
+        <v>1.004719418325315</v>
       </c>
       <c r="K20">
-        <v>2.117895312562947</v>
+        <v>1.004719418325315</v>
       </c>
       <c r="L20">
-        <v>0.06229593718947368</v>
+        <v>1.148779232241096</v>
       </c>
       <c r="M20">
-        <v>1.746360228144737</v>
+        <v>1.467145023106507</v>
       </c>
       <c r="N20">
-        <v>1.746360228144737</v>
+        <v>1.467145023106507</v>
       </c>
       <c r="O20">
-        <v>1.791462209640351</v>
+        <v>1.168552882991735</v>
       </c>
       <c r="P20">
-        <v>1.87020525628414</v>
+        <v>1.31300315484611</v>
       </c>
       <c r="Q20">
-        <v>1.87020525628414</v>
+        <v>1.31300315484611</v>
       </c>
       <c r="R20">
-        <v>1.932127770353842</v>
+        <v>1.235932220715911</v>
       </c>
       <c r="S20">
-        <v>1.932127770353842</v>
+        <v>1.235932220715911</v>
       </c>
       <c r="T20">
-        <v>1.308853624881719</v>
+        <v>1.335633109209219</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.1130292872609318</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="D21">
-        <v>-3.794840885238125E-05</v>
+        <v>2.117882948532105</v>
       </c>
       <c r="E21">
-        <v>-3.794840885238125E-05</v>
+        <v>2.117882948532105</v>
       </c>
       <c r="F21">
-        <v>1.832888417990372</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="G21">
-        <v>1.250686388972495</v>
+        <v>0.8011603088052631</v>
       </c>
       <c r="H21">
-        <v>4.102775723979871</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="I21">
-        <v>0.005498949930406612</v>
+        <v>0.5875345469944737</v>
       </c>
       <c r="J21">
-        <v>0.1130292872609318</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="K21">
-        <v>0.1130292872609318</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="L21">
-        <v>1.832888417990372</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="M21">
-        <v>0.9164252347907598</v>
+        <v>1.610887203055526</v>
       </c>
       <c r="N21">
-        <v>0.9164252347907598</v>
+        <v>1.610887203055526</v>
       </c>
       <c r="O21">
-        <v>0.6127831398373087</v>
+        <v>1.269769651035175</v>
       </c>
       <c r="P21">
-        <v>0.6486265856141504</v>
+        <v>1.429189784383737</v>
       </c>
       <c r="Q21">
-        <v>0.6486265856141504</v>
+        <v>1.429189784383737</v>
       </c>
       <c r="R21">
-        <v>0.5147272610258458</v>
+        <v>1.338341075047842</v>
       </c>
       <c r="S21">
-        <v>0.5147272610258458</v>
+        <v>1.338341075047842</v>
       </c>
       <c r="T21">
-        <v>1.217473469954204</v>
+        <v>1.374708630782614</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.486216094593838</v>
+        <v>2.117895312562947</v>
       </c>
       <c r="D22">
-        <v>0.01444413321375922</v>
+        <v>3.4304245191</v>
       </c>
       <c r="E22">
-        <v>0.01444413321375922</v>
+        <v>3.4304245191</v>
       </c>
       <c r="F22">
-        <v>1.369242230548034</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="G22">
-        <v>1.543102081820894</v>
+        <v>0.3592011805052631</v>
       </c>
       <c r="H22">
-        <v>0.1235815129862916</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="I22">
-        <v>0.3225242475568116</v>
+        <v>1.881666172631579</v>
       </c>
       <c r="J22">
-        <v>1.486216094593838</v>
+        <v>2.117895312562947</v>
       </c>
       <c r="K22">
-        <v>1.486216094593838</v>
+        <v>2.117895312562947</v>
       </c>
       <c r="L22">
-        <v>1.369242230548034</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="M22">
-        <v>0.6918431818808968</v>
+        <v>1.746360228144737</v>
       </c>
       <c r="N22">
-        <v>0.6918431818808968</v>
+        <v>1.746360228144737</v>
       </c>
       <c r="O22">
-        <v>0.568736870439535</v>
+        <v>1.791462209640351</v>
       </c>
       <c r="P22">
-        <v>0.9566341527852105</v>
+        <v>1.87020525628414</v>
       </c>
       <c r="Q22">
-        <v>0.9566341527852105</v>
+        <v>1.87020525628414</v>
       </c>
       <c r="R22">
-        <v>1.089029638237367</v>
+        <v>1.932127770353842</v>
       </c>
       <c r="S22">
-        <v>1.089029638237367</v>
+        <v>1.932127770353842</v>
       </c>
       <c r="T22">
-        <v>0.8098517167866048</v>
+        <v>1.308853624881719</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.4737304055118672</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="D23">
-        <v>0.3218313991703848</v>
+        <v>-3.794840885238125E-05</v>
       </c>
       <c r="E23">
-        <v>0.3218313991703848</v>
+        <v>-3.794840885238125E-05</v>
       </c>
       <c r="F23">
-        <v>1.351068282767973</v>
+        <v>1.832888417990372</v>
       </c>
       <c r="G23">
-        <v>1.147339775608284</v>
+        <v>1.250686388972495</v>
       </c>
       <c r="H23">
-        <v>0.68392153330043</v>
+        <v>4.102775723979871</v>
       </c>
       <c r="I23">
-        <v>1.020460596570308</v>
+        <v>0.005498949930406612</v>
       </c>
       <c r="J23">
-        <v>0.4737304055118672</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="K23">
-        <v>0.4737304055118672</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="L23">
-        <v>1.351068282767973</v>
+        <v>1.832888417990372</v>
       </c>
       <c r="M23">
-        <v>0.8364498409691786</v>
+        <v>0.9164252347907598</v>
       </c>
       <c r="N23">
-        <v>0.8364498409691786</v>
+        <v>0.9164252347907598</v>
       </c>
       <c r="O23">
-        <v>0.8977867595028882</v>
+        <v>0.6127831398373087</v>
       </c>
       <c r="P23">
-        <v>0.7155433624834081</v>
+        <v>0.6486265856141504</v>
       </c>
       <c r="Q23">
-        <v>0.7155433624834081</v>
+        <v>0.6486265856141504</v>
       </c>
       <c r="R23">
-        <v>0.6550901232405228</v>
+        <v>0.5147272610258458</v>
       </c>
       <c r="S23">
-        <v>0.6550901232405228</v>
+        <v>0.5147272610258458</v>
       </c>
       <c r="T23">
-        <v>0.8330586654882076</v>
+        <v>1.217473469954204</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.552298692499379</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="D24">
-        <v>1.713282696435613</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="E24">
-        <v>1.713282696435613</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="F24">
-        <v>0.4915436637177764</v>
+        <v>1.369242230548034</v>
       </c>
       <c r="G24">
-        <v>0.7928834745362943</v>
+        <v>1.543102081820894</v>
       </c>
       <c r="H24">
-        <v>1.5747027242848</v>
+        <v>0.1235815129862916</v>
       </c>
       <c r="I24">
-        <v>1.034762081401286</v>
+        <v>0.3225242475568116</v>
       </c>
       <c r="J24">
-        <v>1.552298692499379</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="K24">
-        <v>1.552298692499379</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="L24">
-        <v>0.4915436637177764</v>
+        <v>1.369242230548034</v>
       </c>
       <c r="M24">
-        <v>1.102413180076695</v>
+        <v>0.6918431818808968</v>
       </c>
       <c r="N24">
-        <v>1.102413180076695</v>
+        <v>0.6918431818808968</v>
       </c>
       <c r="O24">
-        <v>1.079862813851558</v>
+        <v>0.568736870439535</v>
       </c>
       <c r="P24">
-        <v>1.252375017550923</v>
+        <v>0.9566341527852105</v>
       </c>
       <c r="Q24">
-        <v>1.252375017550923</v>
+        <v>0.9566341527852105</v>
       </c>
       <c r="R24">
-        <v>1.327355936288037</v>
+        <v>1.089029638237367</v>
       </c>
       <c r="S24">
-        <v>1.327355936288037</v>
+        <v>1.089029638237367</v>
       </c>
       <c r="T24">
-        <v>1.193245555479191</v>
+        <v>0.8098517167866048</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.0448756062245436</v>
+        <v>0.4737304055118672</v>
       </c>
       <c r="D25">
-        <v>4.958971238726514</v>
+        <v>0.3218313991703848</v>
       </c>
       <c r="E25">
-        <v>4.958971238726514</v>
+        <v>0.3218313991703848</v>
       </c>
       <c r="F25">
-        <v>0.2097497719445351</v>
+        <v>1.351068282767973</v>
       </c>
       <c r="G25">
-        <v>0.1665402680163802</v>
+        <v>1.147339775608284</v>
       </c>
       <c r="H25">
-        <v>0.0005971704771489938</v>
+        <v>0.68392153330043</v>
       </c>
       <c r="I25">
-        <v>2.452011665041457</v>
+        <v>1.020460596570308</v>
       </c>
       <c r="J25">
-        <v>0.0448756062245436</v>
+        <v>0.4737304055118672</v>
       </c>
       <c r="K25">
-        <v>0.0448756062245436</v>
+        <v>0.4737304055118672</v>
       </c>
       <c r="L25">
-        <v>0.2097497719445351</v>
+        <v>1.351068282767973</v>
       </c>
       <c r="M25">
-        <v>2.584360505335525</v>
+        <v>0.8364498409691786</v>
       </c>
       <c r="N25">
-        <v>2.584360505335525</v>
+        <v>0.8364498409691786</v>
       </c>
       <c r="O25">
-        <v>2.540244225237502</v>
+        <v>0.8977867595028882</v>
       </c>
       <c r="P25">
-        <v>1.737865538965198</v>
+        <v>0.7155433624834081</v>
       </c>
       <c r="Q25">
-        <v>1.737865538965198</v>
+        <v>0.7155433624834081</v>
       </c>
       <c r="R25">
-        <v>1.314618055780034</v>
+        <v>0.6550901232405228</v>
       </c>
       <c r="S25">
-        <v>1.314618055780034</v>
+        <v>0.6550901232405228</v>
       </c>
       <c r="T25">
-        <v>1.305457620071763</v>
+        <v>0.8330586654882076</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.632480598682546</v>
+        <v>1.552298692499379</v>
       </c>
       <c r="D26">
-        <v>0.6311671708583741</v>
+        <v>1.713282696435613</v>
       </c>
       <c r="E26">
-        <v>0.6311671708583741</v>
+        <v>1.713282696435613</v>
       </c>
       <c r="F26">
-        <v>1.040952454476435</v>
+        <v>0.4915436637177764</v>
       </c>
       <c r="G26">
-        <v>0.9108226420960558</v>
+        <v>0.7928834745362943</v>
       </c>
       <c r="H26">
-        <v>0.07790154559647507</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="I26">
-        <v>1.558998625137756</v>
+        <v>1.034762081401286</v>
       </c>
       <c r="J26">
-        <v>0.632480598682546</v>
+        <v>1.552298692499379</v>
       </c>
       <c r="K26">
-        <v>0.632480598682546</v>
+        <v>1.552298692499379</v>
       </c>
       <c r="L26">
-        <v>1.040952454476435</v>
+        <v>0.4915436637177764</v>
       </c>
       <c r="M26">
-        <v>0.8360598126674047</v>
+        <v>1.102413180076695</v>
       </c>
       <c r="N26">
-        <v>0.8360598126674047</v>
+        <v>1.102413180076695</v>
       </c>
       <c r="O26">
-        <v>1.077039416824189</v>
+        <v>1.079862813851558</v>
       </c>
       <c r="P26">
-        <v>0.7682000746724519</v>
+        <v>1.252375017550923</v>
       </c>
       <c r="Q26">
-        <v>0.7682000746724519</v>
+        <v>1.252375017550923</v>
       </c>
       <c r="R26">
-        <v>0.7342702056749754</v>
+        <v>1.327355936288037</v>
       </c>
       <c r="S26">
-        <v>0.7342702056749754</v>
+        <v>1.327355936288037</v>
       </c>
       <c r="T26">
-        <v>0.8087205061412738</v>
+        <v>1.193245555479191</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.038270028101423</v>
+        <v>0.0448756062245436</v>
       </c>
       <c r="D27">
-        <v>0.5824804053476068</v>
+        <v>4.958971238726514</v>
       </c>
       <c r="E27">
-        <v>0.5824804053476068</v>
+        <v>4.958971238726514</v>
       </c>
       <c r="F27">
-        <v>1.078041048207918</v>
+        <v>0.2097497719445351</v>
       </c>
       <c r="G27">
-        <v>0.9209271372953872</v>
+        <v>0.1665402680163802</v>
       </c>
       <c r="H27">
-        <v>1.278573822860358</v>
+        <v>0.0005971704771489938</v>
       </c>
       <c r="I27">
-        <v>1.049442799052001</v>
+        <v>2.452011665041457</v>
       </c>
       <c r="J27">
-        <v>1.038270028101423</v>
+        <v>0.0448756062245436</v>
       </c>
       <c r="K27">
-        <v>1.038270028101423</v>
+        <v>0.0448756062245436</v>
       </c>
       <c r="L27">
-        <v>1.078041048207918</v>
+        <v>0.2097497719445351</v>
       </c>
       <c r="M27">
-        <v>0.8302607267777624</v>
+        <v>2.584360505335525</v>
       </c>
       <c r="N27">
-        <v>0.8302607267777624</v>
+        <v>2.584360505335525</v>
       </c>
       <c r="O27">
-        <v>0.9033214175358421</v>
+        <v>2.540244225237502</v>
       </c>
       <c r="P27">
-        <v>0.8995971605523159</v>
+        <v>1.737865538965198</v>
       </c>
       <c r="Q27">
-        <v>0.899597160552316</v>
+        <v>1.737865538965198</v>
       </c>
       <c r="R27">
-        <v>0.9342653774395927</v>
+        <v>1.314618055780034</v>
       </c>
       <c r="S27">
-        <v>0.9342653774395927</v>
+        <v>1.314618055780034</v>
       </c>
       <c r="T27">
-        <v>0.9912892068107825</v>
+        <v>1.305457620071763</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.7811523388825944</v>
+        <v>0.632480598682546</v>
       </c>
       <c r="D28">
-        <v>1.326353524349743</v>
+        <v>0.6311671708583741</v>
       </c>
       <c r="E28">
-        <v>1.326353524349743</v>
+        <v>0.6311671708583741</v>
       </c>
       <c r="F28">
-        <v>1.128384283031471</v>
+        <v>1.040952454476435</v>
       </c>
       <c r="G28">
-        <v>0.7860314906808465</v>
+        <v>0.9108226420960558</v>
       </c>
       <c r="H28">
-        <v>1.451124243170215</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="I28">
-        <v>1.433262931069014</v>
+        <v>1.558998625137756</v>
       </c>
       <c r="J28">
-        <v>0.7811523388825944</v>
+        <v>0.632480598682546</v>
       </c>
       <c r="K28">
-        <v>0.7811523388825944</v>
+        <v>0.632480598682546</v>
       </c>
       <c r="L28">
-        <v>1.128384283031471</v>
+        <v>1.040952454476435</v>
       </c>
       <c r="M28">
-        <v>1.227368903690607</v>
+        <v>0.8360598126674047</v>
       </c>
       <c r="N28">
-        <v>1.227368903690607</v>
+        <v>0.8360598126674047</v>
       </c>
       <c r="O28">
-        <v>1.296000246150076</v>
+        <v>1.077039416824189</v>
       </c>
       <c r="P28">
-        <v>1.078630048754603</v>
+        <v>0.7682000746724519</v>
       </c>
       <c r="Q28">
-        <v>1.078630048754603</v>
+        <v>0.7682000746724519</v>
       </c>
       <c r="R28">
-        <v>1.004260621286601</v>
+        <v>0.7342702056749754</v>
       </c>
       <c r="S28">
-        <v>1.004260621286601</v>
+        <v>0.7342702056749754</v>
       </c>
       <c r="T28">
-        <v>1.151051468530647</v>
+        <v>0.8087205061412738</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="D29">
+        <v>0.5824804053476068</v>
+      </c>
+      <c r="E29">
+        <v>0.5824804053476068</v>
+      </c>
+      <c r="F29">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="G29">
+        <v>0.9209271372953872</v>
+      </c>
+      <c r="H29">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="I29">
+        <v>1.049442799052001</v>
+      </c>
+      <c r="J29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="K29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="L29">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="M29">
+        <v>0.8302607267777624</v>
+      </c>
+      <c r="N29">
+        <v>0.8302607267777624</v>
+      </c>
+      <c r="O29">
+        <v>0.9033214175358421</v>
+      </c>
+      <c r="P29">
+        <v>0.8995971605523159</v>
+      </c>
+      <c r="Q29">
+        <v>0.899597160552316</v>
+      </c>
+      <c r="R29">
+        <v>0.9342653774395927</v>
+      </c>
+      <c r="S29">
+        <v>0.9342653774395927</v>
+      </c>
+      <c r="T29">
+        <v>0.9912892068107825</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.7811523388825944</v>
+      </c>
+      <c r="D30">
+        <v>1.326353524349743</v>
+      </c>
+      <c r="E30">
+        <v>1.326353524349743</v>
+      </c>
+      <c r="F30">
+        <v>1.128384283031471</v>
+      </c>
+      <c r="G30">
+        <v>0.7860314906808465</v>
+      </c>
+      <c r="H30">
+        <v>1.451124243170215</v>
+      </c>
+      <c r="I30">
+        <v>1.433262931069014</v>
+      </c>
+      <c r="J30">
+        <v>0.7811523388825944</v>
+      </c>
+      <c r="K30">
+        <v>0.7811523388825944</v>
+      </c>
+      <c r="L30">
+        <v>1.128384283031471</v>
+      </c>
+      <c r="M30">
+        <v>1.227368903690607</v>
+      </c>
+      <c r="N30">
+        <v>1.227368903690607</v>
+      </c>
+      <c r="O30">
+        <v>1.296000246150076</v>
+      </c>
+      <c r="P30">
+        <v>1.078630048754603</v>
+      </c>
+      <c r="Q30">
+        <v>1.078630048754603</v>
+      </c>
+      <c r="R30">
+        <v>1.004260621286601</v>
+      </c>
+      <c r="S30">
+        <v>1.004260621286601</v>
+      </c>
+      <c r="T30">
+        <v>1.151051468530647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.09224203304639991</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9466846488932475</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9466846488932475</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.919536912415851</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9680220899773099</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.6857840736688057</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>1.60186731408835</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.09224203304639991</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.09224203304639991</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>1.919536912415851</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.43311078065455</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.43311078065455</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.489362958465817</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>0.9861545314518331</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>0.9861545314518331</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>0.7626764068504748</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>0.7626764068504748</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.035689512014994</v>
       </c>
     </row>
